--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35275863" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35791039" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36342761" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36884426" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37526747" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38057014" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ38564575" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ39085933" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ39597065" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ56565403" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57061997" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57582365" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58123416" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58644500" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59211507" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ59706485" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ00313605" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ00895064" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10985.93502535249</v>
+        <v>11017.92354331292</v>
       </c>
       <c r="C2" t="n">
-        <v>4.732306673093211e-15</v>
+        <v>3.987346544880982e-15</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-265.8085145540321</v>
+        <v>-104.4682935191605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6581951807267836</v>
+        <v>0.8608213685576471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.7826460429126</v>
+        <v>365.8306914604748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6881414085606221</v>
+        <v>0.5395529473831285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.8137117795077</v>
+        <v>1932.150452159618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5219276051945483</v>
+        <v>0.08313989835056702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1938.710576634529</v>
+        <v>111.809112543935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0820339986369886</v>
+        <v>0.04323611112974445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.5901948132849</v>
+        <v>-1773.548826888373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04553141184494486</v>
+        <v>3.785051116057138e-32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1782.169896201947</v>
+        <v>-26.31967471743078</v>
       </c>
       <c r="C8" t="n">
-        <v>1.970255062630959e-32</v>
+        <v>5.704345410143986e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-25.3948249808238</v>
+        <v>200.6183036999109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001065418755377742</v>
+        <v>8.057456822833306e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198.9739054439854</v>
+        <v>450.6028530258086</v>
       </c>
       <c r="C10" t="n">
-        <v>1.066347516512182e-08</v>
+        <v>1.577434135893209e-63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.4629278377284</v>
+        <v>-0.04813595052498603</v>
       </c>
       <c r="C11" t="n">
-        <v>3.695040168511383e-64</v>
+        <v>0.02336664647782154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04813476775330058</v>
+        <v>8.48776149175832e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02333995583349175</v>
+        <v>0.7531342076130103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.652270754741281e-06</v>
+        <v>-21.46111150372037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7484578366417419</v>
+        <v>0.001094939532006177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.57107704008897</v>
+        <v>-9.330380880776193</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001029838634889358</v>
+        <v>0.2625343236949077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.50237961784361</v>
+        <v>-1910.058537727175</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2537598019503849</v>
+        <v>0.01611155061786552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1854.166869878331</v>
+        <v>164.4012612900447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01953618388066081</v>
+        <v>0.803816727132634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.6335702106972</v>
+        <v>-1468.689232726737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8023344896374717</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1490.941890343872</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4220109390218928</v>
+        <v>0.4290635781577722</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12645.33420357542</v>
+        <v>12668.30490038712</v>
       </c>
       <c r="C2" t="n">
-        <v>8.777898408472164e-20</v>
+        <v>7.584249408332597e-20</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-576.3897587945385</v>
+        <v>-447.6706944413615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3151485834527848</v>
+        <v>0.4310688363890615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-165.6541332726076</v>
+        <v>6.834014442181399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7801747738200899</v>
+        <v>0.990416183256601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.00745616426255</v>
+        <v>1200.012184514166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9705456998709536</v>
+        <v>0.2485534850752786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1205.617312831808</v>
+        <v>96.60849983533862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2462984879599458</v>
+        <v>0.08337857285506098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.20666449779353</v>
+        <v>-1634.412868894343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08145712465071463</v>
+        <v>1.58939872673037e-27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1644.117543333487</v>
+        <v>-22.41708637857024</v>
       </c>
       <c r="C8" t="n">
-        <v>8.499913021204191e-28</v>
+        <v>0.0005817172270225441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.63011222595426</v>
+        <v>197.3618473165753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009300343357347123</v>
+        <v>1.615883180237201e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196.6547755151562</v>
+        <v>428.132289657015</v>
       </c>
       <c r="C10" t="n">
-        <v>1.814524716484419e-08</v>
+        <v>1.599015362016626e-57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>429.7724472204519</v>
+        <v>-0.04867619029654537</v>
       </c>
       <c r="C11" t="n">
-        <v>7.044244272238131e-58</v>
+        <v>0.02270849600771226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04839194613622159</v>
+        <v>4.852416722939972e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02350087390459342</v>
+        <v>0.07233204256946008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.846112639438393e-05</v>
+        <v>-29.35739528382174</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07267057442443785</v>
+        <v>7.648386917734695e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-29.52143672967045</v>
+        <v>-17.6765815840787</v>
       </c>
       <c r="C14" t="n">
-        <v>6.802645648044198e-06</v>
+        <v>0.03310449172871534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-17.81165717658825</v>
+        <v>-2143.564988385137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03177455370049454</v>
+        <v>0.007304867466246514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2090.13738080364</v>
+        <v>-428.3698753449293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008950268335391587</v>
+        <v>0.5186310693499719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-432.4894616135106</v>
+        <v>-2722.274750281778</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5145722134813757</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2745.353244361947</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1426006359454469</v>
+        <v>0.146022898241396</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12505.14256670779</v>
+        <v>12533.06225258555</v>
       </c>
       <c r="C2" t="n">
-        <v>3.866543573476566e-19</v>
+        <v>3.187030705852662e-19</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-203.8462874704148</v>
+        <v>-121.2125873914748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7281648405114547</v>
+        <v>0.8348487749861488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.08833020069106</v>
+        <v>419.5798330297042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9196824106289068</v>
+        <v>0.4704246117891652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428.8524343746989</v>
+        <v>833.2951451646759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4607184728174929</v>
+        <v>0.4299042071441199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>836.4099645572112</v>
+        <v>141.8930929708261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4281795348757259</v>
+        <v>0.01010904418875297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.6193172120296</v>
+        <v>-1744.62409411454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01025490274915095</v>
+        <v>1.811995309463773e-31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1751.321948377162</v>
+        <v>-25.37905030123056</v>
       </c>
       <c r="C8" t="n">
-        <v>1.210808861164012e-31</v>
+        <v>9.464303539173782e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-24.763957400566</v>
+        <v>178.0690517837711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001478593511665864</v>
+        <v>2.579380121083539e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.7051627880802</v>
+        <v>422.4444136261686</v>
       </c>
       <c r="C10" t="n">
-        <v>2.730842968297253e-07</v>
+        <v>5.653041732066282e-57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>423.8471149044847</v>
+        <v>-0.0561478325864554</v>
       </c>
       <c r="C11" t="n">
-        <v>3.35381612517506e-57</v>
+        <v>0.00770604927790534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05604779665056527</v>
+        <v>4.824281319472655e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007815478473152782</v>
+        <v>0.07112605521809834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.826487723831612e-05</v>
+        <v>-29.6046247288212</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07099429936224064</v>
+        <v>5.91934079406785e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-29.67489013531181</v>
+        <v>-18.59793050040996</v>
       </c>
       <c r="C14" t="n">
-        <v>5.630768626262611e-06</v>
+        <v>0.02460851757815423</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-18.65753701721365</v>
+        <v>-2771.961029812533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02415437627116102</v>
+        <v>0.0004214018800501775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2733.353387624274</v>
+        <v>25.67651835849745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005135125432538694</v>
+        <v>0.9690300659851234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.70235007414962</v>
+        <v>-1603.736871652719</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9629726923182691</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1619.23753458466</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3879652090661007</v>
+        <v>0.3925142615931285</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13168.48444394484</v>
+        <v>13231.58793913553</v>
       </c>
       <c r="C2" t="n">
-        <v>6.797840084609412e-21</v>
+        <v>4.445289381437459e-21</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-555.7086970932281</v>
+        <v>-396.4207925110703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3555891659995071</v>
+        <v>0.5065857665509723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-34.93726156889477</v>
+        <v>110.1154658553482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9551386993012126</v>
+        <v>0.8536696831329564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130.3759367096638</v>
+        <v>1846.040043453621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8271216009792586</v>
+        <v>0.08270750196600739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1857.995965367342</v>
+        <v>171.5737312042902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08067264739367896</v>
+        <v>0.001791754286314354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.4813379910858</v>
+        <v>-1732.580537575147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001912858931559478</v>
+        <v>3.519680728269072e-31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1739.657033568667</v>
+        <v>-33.87320149384716</v>
       </c>
       <c r="C8" t="n">
-        <v>2.036993969783262e-31</v>
+        <v>1.668026392324283e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.69986031204999</v>
+        <v>219.0551911435169</v>
       </c>
       <c r="C9" t="n">
-        <v>4.79231365325039e-07</v>
+        <v>3.962207654585937e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.3986999908188</v>
+        <v>426.3892787601861</v>
       </c>
       <c r="C10" t="n">
-        <v>3.689046870053085e-10</v>
+        <v>2.673633841682262e-56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>429.1480724093112</v>
+        <v>-0.03795396123420795</v>
       </c>
       <c r="C11" t="n">
-        <v>6.880704306647435e-57</v>
+        <v>0.07441817502511948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03786610403415502</v>
+        <v>6.479341014991186e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07502575951245301</v>
+        <v>0.01474473086464336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.512807495047958e-05</v>
+        <v>-30.67175984860812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01421857405763829</v>
+        <v>2.471246847437872e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-30.83795200165744</v>
+        <v>-20.19241434294813</v>
       </c>
       <c r="C14" t="n">
-        <v>2.17226485254931e-06</v>
+        <v>0.01519519597569068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.30498697734399</v>
+        <v>-2622.525936052963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01461718693722701</v>
+        <v>0.0008394948155722996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2549.773818474492</v>
+        <v>-372.4769368440068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001176808101963203</v>
+        <v>0.5754714656765723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-370.0451018729217</v>
+        <v>-4856.882462090929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5778817781152248</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-4868.456463529682</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.008598984487870501</v>
+        <v>0.00877314356894719</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10729.11823475062</v>
+        <v>10748.7207849035</v>
       </c>
       <c r="C2" t="n">
-        <v>1.81811165244819e-14</v>
+        <v>1.624058028388653e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-264.4159880150796</v>
+        <v>-180.0233918085573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6647905121582773</v>
+        <v>0.7661631396800341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.596754549180901</v>
+        <v>326.2290807422352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9954316501255123</v>
+        <v>0.590008975981871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.1152657430254</v>
+        <v>2036.028593346331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5788284882113993</v>
+        <v>0.06896430820488844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2041.91808502874</v>
+        <v>118.2990406600982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06816481867101241</v>
+        <v>0.03227798193576394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.03997905744</v>
+        <v>-1695.960596640015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03265722899493299</v>
+        <v>2.804941907871595e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1703.327962017566</v>
+        <v>-24.48432554875874</v>
       </c>
       <c r="C8" t="n">
-        <v>1.81868837982097e-30</v>
+        <v>0.0001415879175336014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.86802202592928</v>
+        <v>166.6402533074296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002193929947236828</v>
+        <v>1.649796627628146e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.8860086825218</v>
+        <v>455.497648697901</v>
       </c>
       <c r="C10" t="n">
-        <v>1.845511405465944e-06</v>
+        <v>1.308930245012989e-65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>456.5952990733589</v>
+        <v>-0.02638840435890943</v>
       </c>
       <c r="C11" t="n">
-        <v>8.029413975612591e-66</v>
+        <v>0.2123780811209997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02641575010920742</v>
+        <v>1.672170062828865e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2118990614249378</v>
+        <v>0.5288885892698505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.687841297006657e-05</v>
+        <v>-24.35074159447318</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5250346742158696</v>
+        <v>0.0001747625700022678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.45542579133811</v>
+        <v>-2.935310121548794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001640922195839863</v>
+        <v>0.7238393788087772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.006336880497448</v>
+        <v>-3111.243799394464</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7174450480735559</v>
+        <v>7.725326627598741e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3083.239565810895</v>
+        <v>-807.564893684084</v>
       </c>
       <c r="C16" t="n">
-        <v>9.032890132741226e-05</v>
+        <v>0.2202472364390289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-805.1714086149273</v>
+        <v>-1635.294046353362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2216141446948105</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1630.929371681745</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3757007094280532</v>
+        <v>0.3744295665577038</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9391.29180381814</v>
+        <v>9460.209580365003</v>
       </c>
       <c r="C2" t="n">
-        <v>5.481463177981763e-11</v>
+        <v>4.000140317501708e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-560.2708272315783</v>
+        <v>-368.9811435452409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3629620700597223</v>
+        <v>0.5461546872425348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.546101204037</v>
+        <v>145.4334403554908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9005528732199041</v>
+        <v>0.8117784453830688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>167.2188584061232</v>
+        <v>1082.089357272647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7841816019727266</v>
+        <v>0.311525529868076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095.41900618495</v>
+        <v>122.3167177665751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3054363565427899</v>
+        <v>0.02717245896216533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.3781785322791</v>
+        <v>-1691.704452267479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02832040610894915</v>
+        <v>2.36909928235746e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1703.927436520412</v>
+        <v>-20.65719410885715</v>
       </c>
       <c r="C8" t="n">
-        <v>9.680338811205071e-30</v>
+        <v>0.001578741852632637</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.34653755571885</v>
+        <v>228.4144568669332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003165838891260978</v>
+        <v>5.289983904756909e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.5405810078888</v>
+        <v>438.4417263048323</v>
       </c>
       <c r="C10" t="n">
-        <v>6.172407928695267e-11</v>
+        <v>5.315325245771338e-60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>441.0218434102235</v>
+        <v>-0.06542762080616366</v>
       </c>
       <c r="C11" t="n">
-        <v>1.246386788751622e-60</v>
+        <v>0.002114973407113235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06562977131502788</v>
+        <v>4.780900028031317e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00204126721472114</v>
+        <v>0.07796560999854689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.753079083200457e-05</v>
+        <v>-17.61662644765194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07960718119019371</v>
+        <v>0.007208171297547823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-17.6916879330471</v>
+        <v>2.604442209692136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006945443768494955</v>
+        <v>0.7575095123164588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.558600565079969</v>
+        <v>-2896.273564724841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7615652340818441</v>
+        <v>0.0002220373012073092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2834.709328279486</v>
+        <v>173.5521763408844</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003019292941694235</v>
+        <v>0.7937477501656508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>188.5818645176157</v>
+        <v>-1426.462384615309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7762737520205186</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1420.568429566743</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4450056833431989</v>
+        <v>0.4432816271679092</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12926.4001051281</v>
+        <v>12952.44201953338</v>
       </c>
       <c r="C2" t="n">
-        <v>2.188150956112783e-20</v>
+        <v>1.842206369867749e-20</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-307.2954256556432</v>
+        <v>-189.8912844872667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5954850902582102</v>
+        <v>0.7407035892113611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.21830980363255</v>
+        <v>366.9411184999831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8987835062460058</v>
+        <v>0.5226571883716487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.8690475042529</v>
+        <v>1166.836283720926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5070124670622231</v>
+        <v>0.2578188163514384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1172.832640865847</v>
+        <v>170.1596251465289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2553408926261234</v>
+        <v>0.002018656534066262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.6750072059468</v>
+        <v>-1724.818856241784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002077538983912897</v>
+        <v>7.727465822633402e-31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1730.966272411421</v>
+        <v>-22.70909243387604</v>
       </c>
       <c r="C8" t="n">
-        <v>4.980769694673629e-31</v>
+        <v>0.0004721646152212547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.96970661680938</v>
+        <v>222.2221659662925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007423485655346158</v>
+        <v>1.710560755534429e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.4957351287538</v>
+        <v>406.6534531114208</v>
       </c>
       <c r="C10" t="n">
-        <v>1.959459758365003e-10</v>
+        <v>1.085918036592802e-52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.7040427981173</v>
+        <v>-0.04678328235376868</v>
       </c>
       <c r="C11" t="n">
-        <v>4.449498829452774e-53</v>
+        <v>0.02805939436469245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04698002075680859</v>
+        <v>2.255846828187453e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02739441405094273</v>
+        <v>0.4103096707807394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.291815973626558e-05</v>
+        <v>-26.0648019657191</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4028609143172481</v>
+        <v>6.19998182878468e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-26.22139574879077</v>
+        <v>-25.46144419048883</v>
       </c>
       <c r="C14" t="n">
-        <v>5.601924791569385e-05</v>
+        <v>0.002187747081324265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.65388123646967</v>
+        <v>-2087.742183611459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002024878644433745</v>
+        <v>0.00798097838107552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2033.992295074074</v>
+        <v>-271.2097654656482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009814291630276089</v>
+        <v>0.6831583384850702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-258.2260570798419</v>
+        <v>-3444.714554106337</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6975558996759281</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3467.837708831689</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.05967359812693666</v>
+        <v>0.0614096687075143</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11661.42491934879</v>
+        <v>11716.54029130509</v>
       </c>
       <c r="C2" t="n">
-        <v>5.137473847004912e-17</v>
+        <v>3.736545420650861e-17</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-626.527998991207</v>
+        <v>-428.4161772568486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2854045684668385</v>
+        <v>0.4612978409753091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.466995366116862</v>
+        <v>133.3178923959935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9927985446175795</v>
+        <v>0.8186118664922621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.8366939215158</v>
+        <v>1282.273395412852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7925658909723982</v>
+        <v>0.220526500741303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1294.206244540006</v>
+        <v>175.4614897435809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2160979331735234</v>
+        <v>0.001432280121657056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9072207430277</v>
+        <v>-1676.444381269127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00167615975935572</v>
+        <v>1.86208092801292e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1688.715653903126</v>
+        <v>-27.09785034093172</v>
       </c>
       <c r="C8" t="n">
-        <v>7.485413061228497e-30</v>
+        <v>2.660285556505654e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-25.81363227394392</v>
+        <v>213.2633384411557</v>
       </c>
       <c r="C9" t="n">
-        <v>6.574148472136901e-05</v>
+        <v>7.952455399232842e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.2119387454725</v>
+        <v>440.3175885371932</v>
       </c>
       <c r="C10" t="n">
-        <v>9.508088106193561e-10</v>
+        <v>3.595768667310181e-61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.1620243529848</v>
+        <v>-0.03715627794454016</v>
       </c>
       <c r="C11" t="n">
-        <v>7.285796984080715e-62</v>
+        <v>0.07936522597677939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03751722935273281</v>
+        <v>5.485638316108508e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07638942608172999</v>
+        <v>0.04253659726494415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.468706495842074e-05</v>
+        <v>-30.07899514732498</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04310313518407297</v>
+        <v>3.703897241803196e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-30.06876138492462</v>
+        <v>-12.62988029198682</v>
       </c>
       <c r="C14" t="n">
-        <v>3.70170844118909e-06</v>
+        <v>0.1260034244236179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-12.695465914388</v>
+        <v>-2414.620444392471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1239129741845243</v>
+        <v>0.001968323871672101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2349.572251110702</v>
+        <v>-56.69469432773687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002602697104489848</v>
+        <v>0.9316824147653567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-60.58801294289131</v>
+        <v>-2623.298560746484</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9269770942291682</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2625.715321247733</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1544956155263838</v>
+        <v>0.1550268017703737</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11925.11249070758</v>
+        <v>11944.7131361879</v>
       </c>
       <c r="C2" t="n">
-        <v>1.085844419052724e-17</v>
+        <v>9.626857264964213e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-431.2691272927188</v>
+        <v>-320.9879708288549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4513940770601952</v>
+        <v>0.5715713863044523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-76.85410572075125</v>
+        <v>193.3183226628164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8968715174968123</v>
+        <v>0.73329203197784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5601552508483</v>
+        <v>1151.095220199856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7171206352276286</v>
+        <v>0.2683035168034338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1158.502528411321</v>
+        <v>157.7303080076155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2652099658546182</v>
+        <v>0.004209425549202967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1720771740085</v>
+        <v>-1693.336984005163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004344228145412309</v>
+        <v>2.623235342698067e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1701.43438981062</v>
+        <v>-23.24796190937796</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5578807719551e-29</v>
+        <v>0.0003651123793561953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-22.44712420473261</v>
+        <v>223.7659768612965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006062811288158905</v>
+        <v>2.165959111241878e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.3564635703026</v>
+        <v>430.1097094739397</v>
       </c>
       <c r="C10" t="n">
-        <v>2.332064723258075e-10</v>
+        <v>9.868111065009259e-58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.8063084612817</v>
+        <v>-0.05933711975001386</v>
       </c>
       <c r="C11" t="n">
-        <v>4.617380008258831e-58</v>
+        <v>0.00543818604513032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05927778817102637</v>
+        <v>6.199123032937521e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005481835349410998</v>
+        <v>0.02164514554728599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.193864527244251e-05</v>
+        <v>-29.76761900675267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02174789540714015</v>
+        <v>5.746039545487635e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-29.82462250685392</v>
+        <v>-18.3631061822024</v>
       </c>
       <c r="C14" t="n">
-        <v>5.508746515566659e-06</v>
+        <v>0.02794474371918079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-18.58023691986849</v>
+        <v>-2325.210753038141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02616069168003281</v>
+        <v>0.003557573663388391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2279.878788458834</v>
+        <v>386.1222826939691</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004289681773340687</v>
+        <v>0.5619808512458945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385.4526604394444</v>
+        <v>-891.9256524466882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5626331255177641</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-905.9573466757126</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6301213937154568</v>
+        <v>0.6354482925531681</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ56565403" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57061997" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57582365" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58123416" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58644500" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59211507" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59706485" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ00313605" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ00895064" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18720681" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19114192" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ19524996" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19922369" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20278957" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20641930" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ21002971" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21446519" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21811721" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11017.92354331292</v>
+        <v>10813.56830229817</v>
       </c>
       <c r="C2" t="n">
-        <v>3.987346544880982e-15</v>
+        <v>1.052998869937623e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-104.4682935191605</v>
+        <v>-1010.275597053914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8608213685576471</v>
+        <v>0.4256109973041826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.8306914604748</v>
+        <v>-1434.349902406861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5395529473831285</v>
+        <v>0.2110891756109894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1932.150452159618</v>
+        <v>-960.1829777605606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08313989835056702</v>
+        <v>0.4021360679364756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.809112543935</v>
+        <v>-98.30777482569391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04323611112974445</v>
+        <v>0.6508391266170904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1773.548826888373</v>
+        <v>-297.3633114443121</v>
       </c>
       <c r="C7" t="n">
-        <v>3.785051116057138e-32</v>
+        <v>0.1140266258605691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-26.31967471743078</v>
+        <v>117.4090377730729</v>
       </c>
       <c r="C8" t="n">
-        <v>5.704345410143986e-05</v>
+        <v>0.0339862405424439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.6183036999109</v>
+        <v>-1775.971953201481</v>
       </c>
       <c r="C9" t="n">
-        <v>8.057456822833306e-09</v>
+        <v>3.267421582794119e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>450.6028530258086</v>
+        <v>-26.60211790361425</v>
       </c>
       <c r="C10" t="n">
-        <v>1.577434135893209e-63</v>
+        <v>4.768862878559776e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04813595052498603</v>
+        <v>201.579274620274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02336664647782154</v>
+        <v>6.84368334507413e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.48776149175832e-06</v>
+        <v>448.147045936722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7531342076130103</v>
+        <v>2.908606863651632e-62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.46111150372037</v>
+        <v>-0.04789943480050832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001094939532006177</v>
+        <v>0.02408508634437657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.330380880776193</v>
+        <v>1.160090032984611e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2625343236949077</v>
+        <v>0.667833482967818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1910.058537727175</v>
+        <v>-21.98272599658842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01611155061786552</v>
+        <v>0.0008307190785944026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.4012612900447</v>
+        <v>-9.586862458298029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.803816727132634</v>
+        <v>0.2498199981600705</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1988.034295334674</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01275091542940924</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>139.5495941974036</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8334975790077443</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1468.689232726737</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4290635781577722</v>
+      <c r="B19" t="n">
+        <v>-1366.682892249386</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4624723587609315</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12668.30490038712</v>
+        <v>11800.96249995901</v>
       </c>
       <c r="C2" t="n">
-        <v>7.584249408332597e-20</v>
+        <v>4.525284225869862e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-447.6706944413615</v>
+        <v>-190.6107690774938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4310688363890615</v>
+        <v>0.8734411722452549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.834014442181399</v>
+        <v>-926.2740360787344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.990416183256601</v>
+        <v>0.3922567945881139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1200.012184514166</v>
+        <v>-463.2477327467539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2485534850752786</v>
+        <v>0.668500538104309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.60849983533862</v>
+        <v>-9.795053587481121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08337857285506098</v>
+        <v>0.9639877376389553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1634.412868894343</v>
+        <v>-363.4792738401654</v>
       </c>
       <c r="C7" t="n">
-        <v>1.58939872673037e-27</v>
+        <v>0.05409536200400106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.41708637857024</v>
+        <v>103.0015135566963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005817172270225441</v>
+        <v>0.06507400430592272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.3618473165753</v>
+        <v>-1636.764838918032</v>
       </c>
       <c r="C9" t="n">
-        <v>1.615883180237201e-08</v>
+        <v>1.37296660750005e-27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.132289657015</v>
+        <v>-22.8595599223176</v>
       </c>
       <c r="C10" t="n">
-        <v>1.599015362016626e-57</v>
+        <v>0.0004495350593522209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04867619029654537</v>
+        <v>198.4001307943373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02270849600771226</v>
+        <v>1.35283473937341e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.852416722939972e-05</v>
+        <v>423.1107020385258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07233204256946008</v>
+        <v>8.453839687888564e-56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.35739528382174</v>
+        <v>-0.04817212464598427</v>
       </c>
       <c r="C13" t="n">
-        <v>7.648386917734695e-06</v>
+        <v>0.02415205650330105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-17.6765815840787</v>
+        <v>5.237685855172443e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03310449172871534</v>
+        <v>0.05273665006008245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2143.564988385137</v>
+        <v>-30.0435180885132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007304867466246514</v>
+        <v>4.724987950129128e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-428.3698753449293</v>
+        <v>-17.78476156893121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5186310693499719</v>
+        <v>0.0320827393316842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2301.335194169312</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004217678684557046</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-495.7328860944442</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4563119423428521</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2722.274750281778</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.146022898241396</v>
+      <c r="B19" t="n">
+        <v>-2623.773142084879</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1615263389274924</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12533.06225258555</v>
+        <v>10854.80258897419</v>
       </c>
       <c r="C2" t="n">
-        <v>3.187030705852662e-19</v>
+        <v>9.385576154893668e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-121.2125873914748</v>
+        <v>578.6597654657799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8348487749861488</v>
+        <v>0.6439378218153236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419.5798330297042</v>
+        <v>134.5598186315547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4704246117891652</v>
+        <v>0.9060485124422686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.2951451646759</v>
+        <v>680.2362520935692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4299042071441199</v>
+        <v>0.5505752835588873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.8930929708261</v>
+        <v>-63.58370168171783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01010904418875297</v>
+        <v>0.7674942582150408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1744.62409411454</v>
+        <v>-382.0752570761899</v>
       </c>
       <c r="C7" t="n">
-        <v>1.811995309463773e-31</v>
+        <v>0.04236279489345846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.37905030123056</v>
+        <v>146.4292031613757</v>
       </c>
       <c r="C8" t="n">
-        <v>9.464303539173782e-05</v>
+        <v>0.007968770208066835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.0690517837711</v>
+        <v>-1747.255934677105</v>
       </c>
       <c r="C9" t="n">
-        <v>2.579380121083539e-07</v>
+        <v>1.547906992198178e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.4444136261686</v>
+        <v>-25.85028638556895</v>
       </c>
       <c r="C10" t="n">
-        <v>5.653041732066282e-57</v>
+        <v>6.947714461126887e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0561478325864554</v>
+        <v>178.9687466157179</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00770604927790534</v>
+        <v>2.243956551428944e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.824281319472655e-05</v>
+        <v>418.3764065717888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07112605521809834</v>
+        <v>1.700383878026414e-55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.6046247288212</v>
+        <v>-0.05538597311334315</v>
       </c>
       <c r="C13" t="n">
-        <v>5.91934079406785e-06</v>
+        <v>0.008577310418910855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.59793050040996</v>
+        <v>5.256918861382244e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02460851757815423</v>
+        <v>0.04966619639185016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2771.961029812533</v>
+        <v>-30.40641074802196</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004214018800501775</v>
+        <v>3.346614053869524e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.67651835849745</v>
+        <v>-18.82492298887921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9690300659851234</v>
+        <v>0.02290532084289602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2910.647547507618</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0002320431612937443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-36.7482167223595</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9557924576318095</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1603.736871652719</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3925142615931285</v>
+      <c r="B19" t="n">
+        <v>-1495.497299165829</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4257620502651803</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13231.58793913553</v>
+        <v>13116.54106517105</v>
       </c>
       <c r="C2" t="n">
-        <v>4.445289381437459e-21</v>
+        <v>3.429497188457068e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-396.4207925110703</v>
+        <v>-826.7348313703324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5065857665509723</v>
+        <v>0.5101369765633639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.1154658553482</v>
+        <v>-1604.562652546968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8536696831329564</v>
+        <v>0.1584506870877007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1846.040043453621</v>
+        <v>-1097.268964334753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08270750196600739</v>
+        <v>0.3343077302643935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171.5737312042902</v>
+        <v>-202.6952448258015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001791754286314354</v>
+        <v>0.347491520674025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1732.580537575147</v>
+        <v>-480.9092401668523</v>
       </c>
       <c r="C7" t="n">
-        <v>3.519680728269072e-31</v>
+        <v>0.01077743655674563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.87320149384716</v>
+        <v>177.3750395726639</v>
       </c>
       <c r="C8" t="n">
-        <v>1.668026392324283e-07</v>
+        <v>0.001249681231360926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.0551911435169</v>
+        <v>-1733.4364826592</v>
       </c>
       <c r="C9" t="n">
-        <v>3.962207654585937e-10</v>
+        <v>3.314891299188175e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.3892787601861</v>
+        <v>-34.5108719126564</v>
       </c>
       <c r="C10" t="n">
-        <v>2.673633841682262e-56</v>
+        <v>9.643480614595782e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03795396123420795</v>
+        <v>220.1987962838036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07441817502511948</v>
+        <v>3.183111438844352e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.479341014991186e-05</v>
+        <v>422.0664788997673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01474473086464336</v>
+        <v>1.069923380487041e-54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.67175984860812</v>
+        <v>-0.03813899395491721</v>
       </c>
       <c r="C13" t="n">
-        <v>2.471246847437872e-06</v>
+        <v>0.07300989766142083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.19241434294813</v>
+        <v>6.925691767512529e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01519519597569068</v>
+        <v>0.009300903535773836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2622.525936052963</v>
+        <v>-31.49864317768784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008394948155722996</v>
+        <v>1.350054907869893e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-372.4769368440068</v>
+        <v>-20.41721894446684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5754714656765723</v>
+        <v>0.01408924752711108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2753.813871413347</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0004910198846883564</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-410.6348347765707</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5381195943519057</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4856.882462090929</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.00877314356894719</v>
+      <c r="B19" t="n">
+        <v>-4689.777604413328</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01147549585674214</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10748.7207849035</v>
+        <v>12195.18425637245</v>
       </c>
       <c r="C2" t="n">
-        <v>1.624058028388653e-14</v>
+        <v>1.990062541132443e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-180.0233918085573</v>
+        <v>-2589.756657822929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7661631396800341</v>
+        <v>0.05382568544488449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.2290807422352</v>
+        <v>-2907.718192479716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.590008975981871</v>
+        <v>0.01808945999566056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.028593346331</v>
+        <v>-2401.053257727673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06896430820488844</v>
+        <v>0.05068255457018277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.2990406600982</v>
+        <v>-307.0866500281051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03227798193576394</v>
+        <v>0.1500359379119393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1695.960596640015</v>
+        <v>-485.7051289738134</v>
       </c>
       <c r="C7" t="n">
-        <v>2.804941907871595e-30</v>
+        <v>0.00913086932296585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.48432554875874</v>
+        <v>126.0283461181708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001415879175336014</v>
+        <v>0.02268980005605579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.6402533074296</v>
+        <v>-1693.474688255824</v>
       </c>
       <c r="C9" t="n">
-        <v>1.649796627628146e-06</v>
+        <v>3.370910960357973e-30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.497648697901</v>
+        <v>-24.83117018002585</v>
       </c>
       <c r="C10" t="n">
-        <v>1.308930245012989e-65</v>
+        <v>0.0001136946484704236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02638840435890943</v>
+        <v>166.3810916134583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2123780811209997</v>
+        <v>1.695035795313579e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.672170062828865e-05</v>
+        <v>453.7996510122078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5288885892698505</v>
+        <v>9.671709560660153e-65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.35074159447318</v>
+        <v>-0.02570491721205597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001747625700022678</v>
+        <v>0.2244564526069961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.935310121548794</v>
+        <v>1.970172418838925e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7238393788087772</v>
+        <v>0.4590467244958863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3111.243799394464</v>
+        <v>-25.17420338892004</v>
       </c>
       <c r="C15" t="n">
-        <v>7.725326627598741e-05</v>
+        <v>0.0001063122648653553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-807.564893684084</v>
+        <v>-3.515726290469877</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2202472364390289</v>
+        <v>0.6721512685179701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3165.275203933632</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.251338927937767e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-814.15424710207</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2175085892211032</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1635.294046353362</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3744295665577038</v>
+      <c r="B19" t="n">
+        <v>-1455.673037329988</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4292906498963409</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9460.209580365003</v>
+        <v>8319.06742410571</v>
       </c>
       <c r="C2" t="n">
-        <v>4.000140317501708e-11</v>
+        <v>1.085459768652458e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-368.9811435452409</v>
+        <v>251.7624256362618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5461546872425348</v>
+        <v>0.8442872348214615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.4334403554908</v>
+        <v>-476.7681694316288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8117784453830688</v>
+        <v>0.6819481745844777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1082.089357272647</v>
+        <v>41.66695608834129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311525529868076</v>
+        <v>0.9714026790093302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.3167177665751</v>
+        <v>-231.4905321515196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02717245896216533</v>
+        <v>0.2858222739563193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1691.704452267479</v>
+        <v>-548.9849926857562</v>
       </c>
       <c r="C7" t="n">
-        <v>2.36909928235746e-29</v>
+        <v>0.003732519208295965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.65719410885715</v>
+        <v>129.071745929447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001578741852632637</v>
+        <v>0.01973940287117002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.4144568669332</v>
+        <v>-1691.15865234083</v>
       </c>
       <c r="C9" t="n">
-        <v>5.289983904756909e-11</v>
+        <v>2.484463246990742e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.4417263048323</v>
+        <v>-21.25847667960108</v>
       </c>
       <c r="C10" t="n">
-        <v>5.315325245771338e-60</v>
+        <v>0.001137492135993991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06542762080616366</v>
+        <v>229.535965946606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002114973407113235</v>
+        <v>4.280360420639506e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.780900028031317e-05</v>
+        <v>434.8429272847949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07796560999854689</v>
+        <v>1.164483546934411e-58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.61662644765194</v>
+        <v>-0.06471044765712124</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007208171297547823</v>
+        <v>0.002364016551655003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.604442209692136</v>
+        <v>5.284760564043828e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7575095123164588</v>
+        <v>0.05173521338488152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2896.273564724841</v>
+        <v>-18.58161836068686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002220373012073092</v>
+        <v>0.004605860221309409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5521763408844</v>
+        <v>2.281421784188025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7937477501656508</v>
+        <v>0.7867708001872928</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3022.260780207705</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0001279860431199063</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>137.9959508732844</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8357018882920491</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1426.462384615309</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4432816271679092</v>
+      <c r="B19" t="n">
+        <v>-1231.262426328455</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5083634222773072</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12952.44201953338</v>
+        <v>11739.80894285871</v>
       </c>
       <c r="C2" t="n">
-        <v>1.842206369867749e-20</v>
+        <v>1.81412371386776e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-189.8912844872667</v>
+        <v>160.6828148006238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7407035892113611</v>
+        <v>0.8962126732281598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.9411184999831</v>
+        <v>-385.665468742135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5226571883716487</v>
+        <v>0.7312384931220913</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.836283720926</v>
+        <v>178.3792328660564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2578188163514384</v>
+        <v>0.873699958772635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170.1596251465289</v>
+        <v>-50.34391721543957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002018656534066262</v>
+        <v>0.8158477732218805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1724.818856241784</v>
+        <v>-394.526376023701</v>
       </c>
       <c r="C7" t="n">
-        <v>7.727465822633402e-31</v>
+        <v>0.03686205662082568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.70909243387604</v>
+        <v>175.733352736515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004721646152212547</v>
+        <v>0.001431957072487403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.2221659662925</v>
+        <v>-1726.899761652568</v>
       </c>
       <c r="C9" t="n">
-        <v>1.710560755534429e-10</v>
+        <v>6.897811709278731e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.6534531114208</v>
+        <v>-23.18274637956675</v>
       </c>
       <c r="C10" t="n">
-        <v>1.085918036592802e-52</v>
+        <v>0.0003566084095104586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04678328235376868</v>
+        <v>223.9115017575643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02805939436469245</v>
+        <v>1.234055412920456e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.255846828187453e-05</v>
+        <v>401.986438923374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4103096707807394</v>
+        <v>4.244099702410186e-51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.0648019657191</v>
+        <v>-0.0458372291186076</v>
       </c>
       <c r="C13" t="n">
-        <v>6.19998182878468e-05</v>
+        <v>0.03140001033215014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-25.46144419048883</v>
+        <v>2.720586330278008e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002187747081324265</v>
+        <v>0.3216903080319733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2087.742183611459</v>
+        <v>-26.87426309705445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00798097838107552</v>
+        <v>3.687760866694518e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-271.2097654656482</v>
+        <v>-25.59248314331102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6831583384850702</v>
+        <v>0.002073667754388678</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2242.017336636461</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004644192410256863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-338.433697519323</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6113638206871992</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3444.714554106337</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0614096687075143</v>
+      <c r="B19" t="n">
+        <v>-3359.233485678219</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06831383226240106</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11716.54029130509</v>
+        <v>10846.4879067512</v>
       </c>
       <c r="C2" t="n">
-        <v>3.736545420650861e-17</v>
+        <v>5.050115093560686e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-428.4161772568486</v>
+        <v>-26.10169829521277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4612978409753091</v>
+        <v>0.9830991817944943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.3178923959935</v>
+        <v>-812.2876785250539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8186118664922621</v>
+        <v>0.4678540863064912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.273395412852</v>
+        <v>-245.2462757306565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220526500741303</v>
+        <v>0.8263544717970339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175.4614897435809</v>
+        <v>-185.0814676561369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001432280121657056</v>
+        <v>0.3887524098846331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1676.444381269127</v>
+        <v>-514.1737408951033</v>
       </c>
       <c r="C7" t="n">
-        <v>1.86208092801292e-29</v>
+        <v>0.006033322015172839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.09785034093172</v>
+        <v>182.6237028718885</v>
       </c>
       <c r="C8" t="n">
-        <v>2.660285556505654e-05</v>
+        <v>0.0009110341400744079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>213.2633384411557</v>
+        <v>-1677.997573415792</v>
       </c>
       <c r="C9" t="n">
-        <v>7.952455399232842e-10</v>
+        <v>1.681573982336511e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.3175885371932</v>
+        <v>-27.69112515482955</v>
       </c>
       <c r="C10" t="n">
-        <v>3.595768667310181e-61</v>
+        <v>1.742792963832135e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03715627794454016</v>
+        <v>214.1549306332911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07936522597677939</v>
+        <v>6.642993283436233e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.485638316108508e-05</v>
+        <v>436.1920821405447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04253659726494415</v>
+        <v>1.114134887877542e-59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.07899514732498</v>
+        <v>-0.03651751314585182</v>
       </c>
       <c r="C13" t="n">
-        <v>3.703897241803196e-06</v>
+        <v>0.08461346964962839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.62988029198682</v>
+        <v>5.972450750603322e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1260034244236179</v>
+        <v>0.0275065552250821</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2414.620444392471</v>
+        <v>-30.91083738963843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001968323871672101</v>
+        <v>1.989101084922675e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-56.69469432773687</v>
+        <v>-12.92968372353259</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9316824147653567</v>
+        <v>0.1171100886120186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2555.240095579203</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.001121539473825061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-114.6718543399301</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8625883533763687</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2623.298560746484</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1550268017703737</v>
+      <c r="B19" t="n">
+        <v>-2475.422537494517</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1798449651339829</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11944.7131361879</v>
+        <v>10890.65509400804</v>
       </c>
       <c r="C2" t="n">
-        <v>9.626857264964213e-18</v>
+        <v>8.014069450997318e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-320.9879708288549</v>
+        <v>5.824499447727703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5715713863044523</v>
+        <v>0.9962912442870355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.3183226628164</v>
+        <v>-629.3988042520973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.73329203197784</v>
+        <v>0.5834946923222606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.095220199856</v>
+        <v>-111.4286745195252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2683035168034338</v>
+        <v>0.9226283889268914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.7303080076155</v>
+        <v>-67.4832881852862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004209425549202967</v>
+        <v>0.7551836002227224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1693.336984005163</v>
+        <v>-399.3522878552365</v>
       </c>
       <c r="C7" t="n">
-        <v>2.623235342698067e-29</v>
+        <v>0.03509361690571343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-23.24796190937796</v>
+        <v>164.6501318333366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003651123793561953</v>
+        <v>0.002825068918195596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7659768612965</v>
+        <v>-1693.646603116646</v>
       </c>
       <c r="C9" t="n">
-        <v>2.165959111241878e-10</v>
+        <v>2.61194290955782e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430.1097094739397</v>
+        <v>-23.7629925201754</v>
       </c>
       <c r="C10" t="n">
-        <v>9.868111065009259e-58</v>
+        <v>0.0002685447240280704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05933711975001386</v>
+        <v>224.0572006352722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00543818604513032</v>
+        <v>2.036650830252859e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.199123032937521e-05</v>
+        <v>426.2539385852465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02164514554728599</v>
+        <v>2.104688184992926e-56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.76761900675267</v>
+        <v>-0.05824348285912147</v>
       </c>
       <c r="C13" t="n">
-        <v>5.746039545487635e-06</v>
+        <v>0.006372275510263229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.3631061822024</v>
+        <v>6.715787294605775e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02794474371918079</v>
+        <v>0.01309445725859783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2325.210753038141</v>
+        <v>-30.68644662896465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003557573663388391</v>
+        <v>2.99652253216266e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>386.1222826939691</v>
+        <v>-18.58240038400758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5619808512458945</v>
+        <v>0.02612012999036104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2483.030943842689</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.001979885887334106</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>327.0516750385351</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.624065721559204</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-891.9256524466882</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6354482925531681</v>
+      <c r="B19" t="n">
+        <v>-848.7806673633033</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6520430467213472</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18720681" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19114192" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19524996" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19922369" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20278957" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20641930" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ21002971" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21446519" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21811721" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18048539" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ18381532" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18750432" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19101138" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19482059" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19900776" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20547498" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21123539" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21645797" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10813.56830229817</v>
+        <v>10576.80440637979</v>
       </c>
       <c r="C2" t="n">
-        <v>1.052998869937623e-10</v>
+        <v>1.205112671423266e-10</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1010.275597053914</v>
+        <v>-1046.717246829521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4256109973041826</v>
+        <v>0.4087363531288613</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1434.349902406861</v>
+        <v>-1467.223966039216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2110891756109894</v>
+        <v>0.2004576522212508</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-960.1829777605606</v>
+        <v>-988.7321289651521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4021360679364756</v>
+        <v>0.3880029862259246</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98.30777482569391</v>
+        <v>-102.4472237250858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6508391266170904</v>
+        <v>0.6370501264160648</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-297.3633114443121</v>
+        <v>-303.3162770917087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1140266258605691</v>
+        <v>0.106629809249559</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.4090377730729</v>
+        <v>117.7661052893518</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0339862405424439</v>
+        <v>0.03343434827048725</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1775.971953201481</v>
+        <v>-1777.150694969133</v>
       </c>
       <c r="C9" t="n">
-        <v>3.267421582794119e-32</v>
+        <v>2.942152215040907e-32</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.60211790361425</v>
+        <v>-26.54268454804886</v>
       </c>
       <c r="C10" t="n">
-        <v>4.768862878559776e-05</v>
+        <v>4.948741148482167e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.579274620274</v>
+        <v>195.4051918048534</v>
       </c>
       <c r="C11" t="n">
-        <v>6.84368334507413e-09</v>
+        <v>7.07117373455194e-09</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448.147045936722</v>
+        <v>451.9670582307424</v>
       </c>
       <c r="C12" t="n">
-        <v>2.908606863651632e-62</v>
+        <v>1.156701852309141e-65</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04789943480050832</v>
+        <v>-0.05182444737130695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02408508634437657</v>
+        <v>0.01167874198490202</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.160090032984611e-05</v>
+        <v>1.111806266738905e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.667833482967818</v>
+        <v>0.6807812357590444</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.98272599658842</v>
+        <v>-21.14597996253304</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008307190785944026</v>
+        <v>0.001096091732219416</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.586862458298029</v>
+        <v>-7.794295277345466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2498199981600705</v>
+        <v>0.3278011078430078</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1988.034295334674</v>
+        <v>-2158.312462470248</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01275091542940924</v>
+        <v>0.004718356096294716</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>139.5495941974036</v>
+        <v>149.1777486106401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8334975790077443</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1366.682892249386</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4624723587609315</v>
+        <v>0.822156282911999</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11800.96249995901</v>
+        <v>11345.79934308185</v>
       </c>
       <c r="C2" t="n">
-        <v>4.525284225869862e-13</v>
+        <v>1.222302336708543e-12</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-190.6107690774938</v>
+        <v>-245.2345847112578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8734411722452549</v>
+        <v>0.8375466287992457</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-926.2740360787344</v>
+        <v>-977.2556379702646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3922567945881139</v>
+        <v>0.366488556596727</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-463.2477327467539</v>
+        <v>-503.1977474187021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.668500538104309</v>
+        <v>0.6417406248581838</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.795053587481121</v>
+        <v>-18.54886068046918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9639877376389553</v>
+        <v>0.93183967903512</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-363.4792738401654</v>
+        <v>-375.9027072999535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05409536200400106</v>
+        <v>0.04615593882950122</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.0015135566963</v>
+        <v>104.6737467513124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06507400430592272</v>
+        <v>0.06079260386558157</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1636.764838918032</v>
+        <v>-1642.883613608887</v>
       </c>
       <c r="C9" t="n">
-        <v>1.37296660750005e-27</v>
+        <v>8.435894228932069e-28</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.8595599223176</v>
+        <v>-22.75873028344846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004495350593522209</v>
+        <v>0.0004764154458679064</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.4001307943373</v>
+        <v>186.4474225933817</v>
       </c>
       <c r="C11" t="n">
-        <v>1.35283473937341e-08</v>
+        <v>3.704727083222039e-08</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>423.1107020385258</v>
+        <v>430.4320610976722</v>
       </c>
       <c r="C12" t="n">
-        <v>8.453839687888564e-56</v>
+        <v>7.717765619576822e-60</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04817212464598427</v>
+        <v>-0.05539801819244439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02415205650330105</v>
+        <v>0.007546346664741864</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.237685855172443e-05</v>
+        <v>5.145375551927905e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05273665006008245</v>
+        <v>0.05699045469547852</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.0435180885132</v>
+        <v>-28.52233779642173</v>
       </c>
       <c r="C15" t="n">
-        <v>4.724987950129128e-06</v>
+        <v>1.054373892874901e-05</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.78476156893121</v>
+        <v>-14.38151677047404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0320827393316842</v>
+        <v>0.06987057554635223</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2301.335194169312</v>
+        <v>-2633.891193161789</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004217678684557046</v>
+        <v>0.0006096991056724538</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-495.7328860944442</v>
+        <v>-488.3262684406109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4563119423428521</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2623.773142084879</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1615263389274924</v>
+        <v>0.4630827440269806</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10854.80258897419</v>
+        <v>10597.45165811943</v>
       </c>
       <c r="C2" t="n">
-        <v>9.385576154893668e-11</v>
+        <v>1.160147469726282e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>578.6597654657799</v>
+        <v>548.1799120329476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6439378218153236</v>
+        <v>0.6613353460456619</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.5598186315547</v>
+        <v>106.4847903680861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9060485124422686</v>
+        <v>0.9255491200274124</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>680.2362520935692</v>
+        <v>656.687057771927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5505752835588873</v>
+        <v>0.5643159435445508</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63.58370168171783</v>
+        <v>-69.41877251442196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7674942582150408</v>
+        <v>0.7467093289441104</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-382.0752570761899</v>
+        <v>-389.5397352714879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04236279489345846</v>
+        <v>0.0382462034414983</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.4292031613757</v>
+        <v>147.4734525022567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007968770208066835</v>
+        <v>0.00751485943739633</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1747.255934677105</v>
+        <v>-1749.139436871904</v>
       </c>
       <c r="C9" t="n">
-        <v>1.547906992198178e-31</v>
+        <v>1.309063190971087e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-25.85028638556895</v>
+        <v>-25.80583890109504</v>
       </c>
       <c r="C10" t="n">
-        <v>6.947714461126887e-05</v>
+        <v>7.142747305701861e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.9687466157179</v>
+        <v>172.3979891757189</v>
       </c>
       <c r="C11" t="n">
-        <v>2.243956551428944e-07</v>
+        <v>2.795737169610841e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>418.3764065717888</v>
+        <v>422.4708605387785</v>
       </c>
       <c r="C12" t="n">
-        <v>1.700383878026414e-55</v>
+        <v>1.19332116527041e-58</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05538597311334315</v>
+        <v>-0.05955347958515411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008577310418910855</v>
+        <v>0.003527641051653692</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.256918861382244e-05</v>
+        <v>5.204321831399388e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04966619639185016</v>
+        <v>0.05191565634157386</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.40641074802196</v>
+        <v>-29.54973901649868</v>
       </c>
       <c r="C15" t="n">
-        <v>3.346614053869524e-06</v>
+        <v>4.65013170243385e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.82492298887921</v>
+        <v>-16.92176285981456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02290532084289602</v>
+        <v>0.03266824185229907</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2910.647547507618</v>
+        <v>-3093.597109658289</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002320431612937443</v>
+        <v>4.334400242308965e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-36.7482167223595</v>
+        <v>-29.0396258957295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9557924576318095</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1495.497299165829</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4257620502651803</v>
+        <v>0.9650544807439871</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13116.54106517105</v>
+        <v>12249.62509748705</v>
       </c>
       <c r="C2" t="n">
-        <v>3.429497188457068e-15</v>
+        <v>5.732507330468611e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-826.7348313703324</v>
+        <v>-910.5529438804458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5101369765633639</v>
+        <v>0.4682138125370295</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1604.562652546968</v>
+        <v>-1695.681245482427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1584506870877007</v>
+        <v>0.1360695949086184</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1097.268964334753</v>
+        <v>-1169.024349604655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3343077302643935</v>
+        <v>0.3036882568382142</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202.6952448258015</v>
+        <v>-223.6719714688012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.347491520674025</v>
+        <v>0.2996997086660663</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-480.9092401668523</v>
+        <v>-505.5333463135697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01077743655674563</v>
+        <v>0.007297660141675976</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.3750395726639</v>
+        <v>179.7962932492833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001249681231360926</v>
+        <v>0.001073067252448737</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1733.4364826592</v>
+        <v>-1735.536088593381</v>
       </c>
       <c r="C9" t="n">
-        <v>3.314891299188175e-31</v>
+        <v>2.94921020069478e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-34.5108719126564</v>
+        <v>-34.29159635115381</v>
       </c>
       <c r="C10" t="n">
-        <v>9.643480614595782e-08</v>
+        <v>1.17035771684861e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.1987962838036</v>
+        <v>199.3897950616676</v>
       </c>
       <c r="C11" t="n">
-        <v>3.183111438844352e-10</v>
+        <v>4.662666759814042e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>422.0664788997673</v>
+        <v>435.5566346775003</v>
       </c>
       <c r="C12" t="n">
-        <v>1.069923380487041e-54</v>
+        <v>2.678640580823016e-60</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03813899395491721</v>
+        <v>-0.05185018482190666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07300989766142083</v>
+        <v>0.01175576614281845</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.925691767512529e-05</v>
+        <v>6.729188568099552e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009300903535773836</v>
+        <v>0.01149766834734195</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-31.49864317768784</v>
+        <v>-28.48917329166737</v>
       </c>
       <c r="C15" t="n">
-        <v>1.350054907869893e-06</v>
+        <v>8.816027212015842e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.41721894446684</v>
+        <v>-14.12653874094268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01408924752711108</v>
+        <v>0.07512979178191899</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2753.813871413347</v>
+        <v>-3318.49785183732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004910198846883564</v>
+        <v>1.20595837446889e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-410.6348347765707</v>
+        <v>-366.4164446684667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5381195943519057</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4689.777604413328</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01147549585674214</v>
+        <v>0.5827614951960145</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12195.18425637245</v>
+        <v>11932.20418550428</v>
       </c>
       <c r="C2" t="n">
-        <v>1.990062541132443e-12</v>
+        <v>2.306706804068341e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2589.756657822929</v>
+        <v>-2615.828138355364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05382568544488449</v>
+        <v>0.05138144822398802</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2907.718192479716</v>
+        <v>-2935.346568178581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01808945999566056</v>
+        <v>0.01697461090031996</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2401.053257727673</v>
+        <v>-2423.933069051066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05068255457018277</v>
+        <v>0.04845325341765685</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307.0866500281051</v>
+        <v>-311.4305680989384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1500359379119393</v>
+        <v>0.1442120231872755</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-485.7051289738134</v>
+        <v>-491.7358229991189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00913086932296585</v>
+        <v>0.008247807547079666</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.0283461181708</v>
+        <v>126.8180766231712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02268980005605579</v>
+        <v>0.02182942093920421</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1693.474688255824</v>
+        <v>-1696.779380941039</v>
       </c>
       <c r="C9" t="n">
-        <v>3.370910960357973e-30</v>
+        <v>2.471936347318958e-30</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.83117018002585</v>
+        <v>-24.72908032267864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001136946484704236</v>
+        <v>0.000120868639258275</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.3810916134583</v>
+        <v>159.9140580153698</v>
       </c>
       <c r="C11" t="n">
-        <v>1.695035795313579e-06</v>
+        <v>2.20012841747096e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453.7996510122078</v>
+        <v>457.8203877270525</v>
       </c>
       <c r="C12" t="n">
-        <v>9.671709560660153e-65</v>
+        <v>2.994428466487772e-68</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02570491721205597</v>
+        <v>-0.02992458982057575</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2244564526069961</v>
+        <v>0.1438892257554415</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.970172418838925e-05</v>
+        <v>1.926228939242551e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4590467244958863</v>
+        <v>0.4690168068782069</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.17420338892004</v>
+        <v>-24.29975650273888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001063122648653553</v>
+        <v>0.0001465812700151996</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.515726290469877</v>
+        <v>-1.607372474720926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6721512685179701</v>
+        <v>0.8397465708677576</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3165.275203933632</v>
+        <v>-3344.494056499139</v>
       </c>
       <c r="C17" t="n">
-        <v>6.251338927937767e-05</v>
+        <v>1.010067552602119e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-814.15424710207</v>
+        <v>-800.3851163474887</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2175085892211032</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1455.673037329988</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4292906498963409</v>
+        <v>0.2252143280063035</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8319.06742410571</v>
+        <v>8090.220510428489</v>
       </c>
       <c r="C2" t="n">
-        <v>1.085459768652458e-06</v>
+        <v>1.283106108993589e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.7624256362618</v>
+        <v>233.2651457495806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8442872348214615</v>
+        <v>0.8555575021678572</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-476.7681694316288</v>
+        <v>-495.7315093768901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6819481745844777</v>
+        <v>0.6699247071556408</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.66695608834129</v>
+        <v>26.35299476064483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9714026790093302</v>
+        <v>0.981906530151782</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231.4905321515196</v>
+        <v>-234.8810255189694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2858222739563193</v>
+        <v>0.2786726689451972</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-548.9849926857562</v>
+        <v>-554.573481846274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003732519208295965</v>
+        <v>0.003362871993553748</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.071745929447</v>
+        <v>129.8753371946005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01973940287117002</v>
+        <v>0.01895438047811183</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1691.15865234083</v>
+        <v>-1692.691386233143</v>
       </c>
       <c r="C9" t="n">
-        <v>2.484463246990742e-29</v>
+        <v>2.171725695720157e-29</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.25847667960108</v>
+        <v>-21.16682002137449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001137492135993991</v>
+        <v>0.001191369691709981</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.535965946606</v>
+        <v>224.1307486999862</v>
       </c>
       <c r="C11" t="n">
-        <v>4.280360420639506e-11</v>
+        <v>3.481532075191567e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>434.8429272847949</v>
+        <v>438.2806748293133</v>
       </c>
       <c r="C12" t="n">
-        <v>1.164483546934411e-58</v>
+        <v>8.743162407511304e-62</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06471044765712124</v>
+        <v>-0.06816718317962839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002364016551655003</v>
+        <v>0.0009539052242935951</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.284760564043828e-05</v>
+        <v>5.229215142720327e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05173521338488152</v>
+        <v>0.05411910499434842</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-18.58161836068686</v>
+        <v>-17.80287857476886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004605860221309409</v>
+        <v>0.005786520810227539</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.281421784188025</v>
+        <v>3.913177462219938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7867708001872928</v>
+        <v>0.6275189215441443</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3022.260780207705</v>
+        <v>-3174.293641322988</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001279860431199063</v>
+        <v>2.607130222572075e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.9959508732844</v>
+        <v>143.810169855963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8357018882920491</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1231.262426328455</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5083634222773072</v>
+        <v>0.8288634063477969</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11739.80894285871</v>
+        <v>11138.20368677466</v>
       </c>
       <c r="C2" t="n">
-        <v>1.81412371386776e-12</v>
+        <v>8.96385095188753e-12</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.6828148006238</v>
+        <v>96.18162018501698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8962126732281598</v>
+        <v>0.9377459106334933</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-385.665468742135</v>
+        <v>-448.380316035858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7312384931220913</v>
+        <v>0.6895556574169259</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.3792328660564</v>
+        <v>127.6745775189459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.873699958772635</v>
+        <v>0.909401859302194</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50.34391721543957</v>
+        <v>-60.99887812276523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8158477732218805</v>
+        <v>0.7777615585271398</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-394.526376023701</v>
+        <v>-408.9945243979224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03686205662082568</v>
+        <v>0.03035827167611236</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.733352736515</v>
+        <v>177.3706122567207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001431957072487403</v>
+        <v>0.001292041640712039</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1726.899761652568</v>
+        <v>-1733.753520993122</v>
       </c>
       <c r="C9" t="n">
-        <v>6.897811709278731e-31</v>
+        <v>3.970540698256945e-31</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.18274637956675</v>
+        <v>-22.9423498517736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003566084095104586</v>
+        <v>0.0004101530383718447</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>223.9115017575643</v>
+        <v>209.0180698890416</v>
       </c>
       <c r="C11" t="n">
-        <v>1.234055412920456e-10</v>
+        <v>6.410573441263592e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>401.986438923374</v>
+        <v>411.0776060425558</v>
       </c>
       <c r="C12" t="n">
-        <v>4.244099702410186e-51</v>
+        <v>3.698655045089468e-55</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0458372291186076</v>
+        <v>-0.05553863328997177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03140001033215014</v>
+        <v>0.007098497792661959</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.720586330278008e-05</v>
+        <v>2.621268896878231e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3216903080319733</v>
+        <v>0.3396508136033261</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.87426309705445</v>
+        <v>-24.84543714031916</v>
       </c>
       <c r="C15" t="n">
-        <v>3.687760866694518e-05</v>
+        <v>0.0001082216449486241</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.59248314331102</v>
+        <v>-21.20627146155552</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002073667754388678</v>
+        <v>0.007682421942281352</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2242.017336636461</v>
+        <v>-2653.017813234438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004644192410256863</v>
+        <v>0.0004772099103022166</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-338.433697519323</v>
+        <v>-317.1416128447564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6113638206871992</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3359.233485678219</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06831383226240106</v>
+        <v>0.6339608716669787</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10846.4879067512</v>
+        <v>10401.48383883149</v>
       </c>
       <c r="C2" t="n">
-        <v>5.050115093560686e-11</v>
+        <v>1.263231257219037e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.10169829521277</v>
+        <v>-70.77988137305849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9830991817944943</v>
+        <v>0.9541775970635757</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-812.2876785250539</v>
+        <v>-862.8351542551477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4678540863064912</v>
+        <v>0.4403832351992771</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-245.2462757306565</v>
+        <v>-286.1728888756121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8263544717970339</v>
+        <v>0.7978960049667283</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185.0814676561369</v>
+        <v>-192.2513039928821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3887524098846331</v>
+        <v>0.3705207653712427</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-514.1737408951033</v>
+        <v>-524.7439883029151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006033322015172839</v>
+        <v>0.005035999653764941</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.6237028718885</v>
+        <v>183.7156447362032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009110341400744079</v>
+        <v>0.0008479347495631635</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1677.997573415792</v>
+        <v>-1682.043676267683</v>
       </c>
       <c r="C9" t="n">
-        <v>1.681573982336511e-29</v>
+        <v>1.213091036833765e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-27.69112515482955</v>
+        <v>-27.52820040718564</v>
       </c>
       <c r="C10" t="n">
-        <v>1.742792963832135e-05</v>
+        <v>1.947600810903935e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.1549306332911</v>
+        <v>203.0839505195039</v>
       </c>
       <c r="C11" t="n">
-        <v>6.642993283436233e-10</v>
+        <v>1.651297669893934e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>436.1920821405447</v>
+        <v>443.1833539009017</v>
       </c>
       <c r="C12" t="n">
-        <v>1.114134887877542e-59</v>
+        <v>7.370662081136646e-64</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03651751314585182</v>
+        <v>-0.04356708801773591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08461346964962839</v>
+        <v>0.03369637909281574</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.972450750603322e-05</v>
+        <v>5.835726037883986e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0275065552250821</v>
+        <v>0.03114472693191074</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.91083738963843</v>
+        <v>-29.31360047029645</v>
       </c>
       <c r="C15" t="n">
-        <v>1.989101084922675e-06</v>
+        <v>4.506149243787329e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.92968372353259</v>
+        <v>-9.692404228610044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1171100886120186</v>
+        <v>0.2193025204304816</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2555.240095579203</v>
+        <v>-2847.922256848245</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001121539473825061</v>
+        <v>0.0001568081833581465</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-114.6718543399301</v>
+        <v>-100.6454034945045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8625883533763687</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2475.422537494517</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1798449651339829</v>
+        <v>0.8792498459350204</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10890.65509400804</v>
+        <v>10748.51576607905</v>
       </c>
       <c r="C2" t="n">
-        <v>8.014069450997318e-11</v>
+        <v>6.457455399934806e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.824499447727703</v>
+        <v>-11.38752103648702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9962912442870355</v>
+        <v>0.9927453061758118</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-629.3988042520973</v>
+        <v>-646.9648324996593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5834946923222606</v>
+        <v>0.5727922594254353</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-111.4286745195252</v>
+        <v>-126.2616567688806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9226283889268914</v>
+        <v>0.9123274991623151</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67.4832881852862</v>
+        <v>-70.3800738212172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7551836002227224</v>
+        <v>0.7449107920908877</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-399.3522878552365</v>
+        <v>-402.2467847665101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03509361690571343</v>
+        <v>0.03368042549645648</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.6501318333366</v>
+        <v>164.8212410666047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002825068918195596</v>
+        <v>0.002794444561658369</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1693.646603116646</v>
+        <v>-1695.395665990426</v>
       </c>
       <c r="C9" t="n">
-        <v>2.61194290955782e-29</v>
+        <v>2.182699753970717e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.7629925201754</v>
+        <v>-23.7535919438494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002685447240280704</v>
+        <v>0.0002698292830072328</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0572006352722</v>
+        <v>220.3686728526871</v>
       </c>
       <c r="C11" t="n">
-        <v>2.036650830252859e-10</v>
+        <v>1.274777323077051e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>426.2539385852465</v>
+        <v>428.5758505129794</v>
       </c>
       <c r="C12" t="n">
-        <v>2.104688184992926e-56</v>
+        <v>4.346768316929969e-59</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05824348285912147</v>
+        <v>-0.06061605175876034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006372275510263229</v>
+        <v>0.003394551293489489</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.715787294605775e-05</v>
+        <v>6.67774745485591e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01309445725859783</v>
+        <v>0.01356912204416643</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.68644662896465</v>
+        <v>-30.18442031648726</v>
       </c>
       <c r="C15" t="n">
-        <v>2.99652253216266e-06</v>
+        <v>3.124894244091999e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.58240038400758</v>
+        <v>-17.50776419538243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02612012999036104</v>
+        <v>0.02875653669306046</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2483.030943842689</v>
+        <v>-2588.601851440411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001979885887334106</v>
+        <v>0.0007478822492807735</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>327.0516750385351</v>
+        <v>330.2011722136167</v>
       </c>
       <c r="C18" t="n">
-        <v>0.624065721559204</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-848.7806673633033</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6520430467213472</v>
+        <v>0.6206923683143776</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18048539" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ18381532" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18750432" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19101138" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ19482059" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19900776" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20547498" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21123539" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21645797" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ16606864" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17141743" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17770354" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18196825" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ18653733" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19078687" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ19535310" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20008388" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20497447" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10576.80440637979</v>
+        <v>8819.023366851212</v>
       </c>
       <c r="C2" t="n">
-        <v>1.205112671423266e-10</v>
+        <v>1.426388625272766e-07</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1046.717246829521</v>
+        <v>384.2899181680117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4087363531288613</v>
+        <v>0.7612528476852356</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1467.223966039216</v>
+        <v>94.32971744279371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2004576522212508</v>
+        <v>0.9347290025391658</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-988.7321289651521</v>
+        <v>457.2853823360325</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3880029862259246</v>
+        <v>0.6911371761172262</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102.4472237250858</v>
+        <v>-0.8386540382189196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6370501264160648</v>
+        <v>0.9969387898603073</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-303.3162770917087</v>
+        <v>-356.6382743818457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106629809249559</v>
+        <v>0.06031332928390724</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.7661052893518</v>
+        <v>143.4004415667842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03343434827048725</v>
+        <v>0.01002000649459798</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1777.150694969133</v>
+        <v>-1730.737166725597</v>
       </c>
       <c r="C9" t="n">
-        <v>2.942152215040907e-32</v>
+        <v>1.871400694103619e-30</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.54268454804886</v>
+        <v>-23.13104718893933</v>
       </c>
       <c r="C10" t="n">
-        <v>4.948741148482167e-05</v>
+        <v>0.0004187685868027536</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.4051918048534</v>
+        <v>168.5195411455397</v>
       </c>
       <c r="C11" t="n">
-        <v>7.07117373455194e-09</v>
+        <v>2.230495695107357e-06</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451.9670582307424</v>
+        <v>416.5447061916642</v>
       </c>
       <c r="C12" t="n">
-        <v>1.156701852309141e-65</v>
+        <v>7.271254056977194e-53</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05182444737130695</v>
+        <v>-0.06910617427381541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01167874198490202</v>
+        <v>0.002045070765137749</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.111806266738905e-05</v>
+        <v>6.305531846296249e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6807812357590444</v>
+        <v>0.02224622830230304</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.14597996253304</v>
+        <v>-24.48918347915203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001096091732219416</v>
+        <v>0.0002120217550466115</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.794295277345466</v>
+        <v>-2.452834468981805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3278011078430078</v>
+        <v>0.7657642619184561</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2158.312462470248</v>
+        <v>-3665.535187252846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004718356096294716</v>
+        <v>2.082082408067926e-06</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>149.1777486106401</v>
+        <v>227.9101118351937</v>
       </c>
       <c r="C18" t="n">
-        <v>0.822156282911999</v>
+        <v>0.7353657498648717</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11345.79934308185</v>
+        <v>9470.681658039324</v>
       </c>
       <c r="C2" t="n">
-        <v>1.222302336708543e-12</v>
+        <v>1.447326502810885e-08</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-245.2345847112578</v>
+        <v>306.0009874447986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8375466287992457</v>
+        <v>0.813729961009945</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-977.2556379702646</v>
+        <v>90.75336092054931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.366488556596727</v>
+        <v>0.9388942354103869</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-503.1977474187021</v>
+        <v>682.204398052613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6417406248581838</v>
+        <v>0.5642534060997542</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.54886068046918</v>
+        <v>-135.3383351620539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.93183967903512</v>
+        <v>0.5344258926892567</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-375.9027072999535</v>
+        <v>-262.9937642802282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04615593882950122</v>
+        <v>0.1662191217595103</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.6737467513124</v>
+        <v>173.8095424559932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06079260386558157</v>
+        <v>0.001804694634359755</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1642.883613608887</v>
+        <v>-1622.856407937491</v>
       </c>
       <c r="C9" t="n">
-        <v>8.435894228932069e-28</v>
+        <v>2.705243571335648e-27</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.75873028344846</v>
+        <v>-23.42942049739643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004764154458679064</v>
+        <v>0.0002836966271438629</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>186.4474225933817</v>
+        <v>196.4653513671826</v>
       </c>
       <c r="C11" t="n">
-        <v>3.704727083222039e-08</v>
+        <v>2.690690845745191e-08</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.4320610976722</v>
+        <v>404.1756454007195</v>
       </c>
       <c r="C12" t="n">
-        <v>7.717765619576822e-60</v>
+        <v>8.504636976418325e-51</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05539801819244439</v>
+        <v>-0.05435483333391591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007546346664741864</v>
+        <v>0.01501368557980745</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.145375551927905e-05</v>
+        <v>3.582728172331926e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05699045469547852</v>
+        <v>0.1927387335968604</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.52233779642173</v>
+        <v>-24.90672065445413</v>
       </c>
       <c r="C15" t="n">
-        <v>1.054373892874901e-05</v>
+        <v>0.0001499091838460239</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.38151677047404</v>
+        <v>-8.725843058733567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06987057554635223</v>
+        <v>0.2733767516638805</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2633.891193161789</v>
+        <v>-3745.17491956201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006096991056724538</v>
+        <v>1.011208585602225e-06</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-488.3262684406109</v>
+        <v>-446.3114513070307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4630827440269806</v>
+        <v>0.5042667970777419</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10597.45165811943</v>
+        <v>11385.84922477519</v>
       </c>
       <c r="C2" t="n">
-        <v>1.160147469726282e-10</v>
+        <v>1.078813361243308e-11</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.1799120329476</v>
+        <v>-351.4854180451996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6613353460456619</v>
+        <v>0.7866989886971494</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4847903680861</v>
+        <v>-863.0583259691326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9255491200274124</v>
+        <v>0.4665788466019679</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>656.687057771927</v>
+        <v>-336.7292873010398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5643159435445508</v>
+        <v>0.7761503814387698</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69.41877251442196</v>
+        <v>-69.12248780746256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7467093289441104</v>
+        <v>0.7505293194884453</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-389.5397352714879</v>
+        <v>-499.1201801459167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0382462034414983</v>
+        <v>0.008477269599578513</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.4734525022567</v>
+        <v>191.6981793312145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00751485943739633</v>
+        <v>0.0005277778849964921</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1749.139436871904</v>
+        <v>-1693.190576513098</v>
       </c>
       <c r="C9" t="n">
-        <v>1.309063190971087e-31</v>
+        <v>1.970403081403571e-29</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-25.80583890109504</v>
+        <v>-28.26550415065111</v>
       </c>
       <c r="C10" t="n">
-        <v>7.142747305701861e-05</v>
+        <v>1.433256670526473e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172.3979891757189</v>
+        <v>236.9074883087146</v>
       </c>
       <c r="C11" t="n">
-        <v>2.795737169610841e-07</v>
+        <v>2.370768382895565e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>422.4708605387785</v>
+        <v>419.3538447788025</v>
       </c>
       <c r="C12" t="n">
-        <v>1.19332116527041e-58</v>
+        <v>2.001264069686894e-54</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05955347958515411</v>
+        <v>-0.03945442824728332</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003527641051653692</v>
+        <v>0.07595741577119815</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.204321831399388e-05</v>
+        <v>2.087889185358118e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05191565634157386</v>
+        <v>0.4419245225541621</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-29.54973901649868</v>
+        <v>-26.12455162236629</v>
       </c>
       <c r="C15" t="n">
-        <v>4.65013170243385e-06</v>
+        <v>6.138363331433369e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.92176285981456</v>
+        <v>-14.18407818590337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03266824185229907</v>
+        <v>0.07608042784171035</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3093.597109658289</v>
+        <v>-3792.246222873521</v>
       </c>
       <c r="C17" t="n">
-        <v>4.334400242308965e-05</v>
+        <v>7.580894473344167e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-29.0396258957295</v>
+        <v>-884.742275069069</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9650544807439871</v>
+        <v>0.1853806646342862</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12249.62509748705</v>
+        <v>12145.28460042453</v>
       </c>
       <c r="C2" t="n">
-        <v>5.732507330468611e-14</v>
+        <v>3.482915954245517e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-910.5529438804458</v>
+        <v>-1907.595419513765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4682138125370295</v>
+        <v>0.1752161699815127</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1695.681245482427</v>
+        <v>-3069.564272340848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1360695949086184</v>
+        <v>0.018098974191681</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1169.024349604655</v>
+        <v>-2573.454772889994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3036882568382142</v>
+        <v>0.047309249204143</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223.6719714688012</v>
+        <v>-159.8643819851644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2996997086660663</v>
+        <v>0.4609985058386238</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-505.5333463135697</v>
+        <v>-461.1425469519584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007297660141675976</v>
+        <v>0.0143609970386913</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.7962932492833</v>
+        <v>184.6733074751669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001073067252448737</v>
+        <v>0.0009670854602720975</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1735.536088593381</v>
+        <v>-1854.391316557665</v>
       </c>
       <c r="C9" t="n">
-        <v>2.94921020069478e-31</v>
+        <v>4.480370182310057e-35</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-34.29159635115381</v>
+        <v>-22.65360510990114</v>
       </c>
       <c r="C10" t="n">
-        <v>1.17035771684861e-07</v>
+        <v>0.0004577722111309279</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.3897950616676</v>
+        <v>274.0277818205312</v>
       </c>
       <c r="C11" t="n">
-        <v>4.662666759814042e-09</v>
+        <v>8.54207136019344e-15</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>435.5566346775003</v>
+        <v>443.7331639121294</v>
       </c>
       <c r="C12" t="n">
-        <v>2.678640580823016e-60</v>
+        <v>2.612253482355517e-60</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05185018482190666</v>
+        <v>-0.05275364422717194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01175576614281845</v>
+        <v>0.01789494617032093</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.729188568099552e-05</v>
+        <v>2.458746245606288e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01149766834734195</v>
+        <v>0.3652117160864671</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.48917329166737</v>
+        <v>-20.27120548047539</v>
       </c>
       <c r="C15" t="n">
-        <v>8.816027212015842e-06</v>
+        <v>0.001919402893722542</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.12653874094268</v>
+        <v>-12.52572578663398</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07512979178191899</v>
+        <v>0.1146798413789433</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3318.49785183732</v>
+        <v>-2383.785073662238</v>
       </c>
       <c r="C17" t="n">
-        <v>1.20595837446889e-05</v>
+        <v>0.001752739668985325</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-366.4164446684667</v>
+        <v>-95.85135125979434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5827614951960145</v>
+        <v>0.8859127680718673</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11932.20418550428</v>
+        <v>9318.083338582448</v>
       </c>
       <c r="C2" t="n">
-        <v>2.306706804068341e-12</v>
+        <v>3.951470316913573e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2615.828138355364</v>
+        <v>1371.7030656176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05138144822398802</v>
+        <v>0.2980949219983953</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2935.346568178581</v>
+        <v>837.6137155175505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01697461090031996</v>
+        <v>0.4910981364609054</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2423.933069051066</v>
+        <v>1274.532666313478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04845325341765685</v>
+        <v>0.2945077535864532</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311.4305680989384</v>
+        <v>-25.77142188480229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1442120231872755</v>
+        <v>0.9064027203881155</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-491.7358229991189</v>
+        <v>-330.3339324345087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008247807547079666</v>
+        <v>0.08128453699457165</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.8180766231712</v>
+        <v>180.7847854588114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02182942093920421</v>
+        <v>0.001245978209740194</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1696.779380941039</v>
+        <v>-1771.665699597007</v>
       </c>
       <c r="C9" t="n">
-        <v>2.471936347318958e-30</v>
+        <v>1.459772452522107e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.72908032267864</v>
+        <v>-24.55819757235268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000120868639258275</v>
+        <v>0.0001786882365944817</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.9140580153698</v>
+        <v>199.1718243634617</v>
       </c>
       <c r="C11" t="n">
-        <v>2.20012841747096e-06</v>
+        <v>2.005397867915447e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>457.8203877270525</v>
+        <v>420.0651689859986</v>
       </c>
       <c r="C12" t="n">
-        <v>2.994428466487772e-68</v>
+        <v>1.860146905089949e-53</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02992458982057575</v>
+        <v>-0.05880150830533976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1438892257554415</v>
+        <v>0.009076697434403501</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.926228939242551e-05</v>
+        <v>5.51735278376362e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4690168068782069</v>
+        <v>0.04441125216896162</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.29975650273888</v>
+        <v>-28.44791234915734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001465812700151996</v>
+        <v>1.606973047561589e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.607372474720926</v>
+        <v>-18.09343759461861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8397465708677576</v>
+        <v>0.02384786103760105</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3344.494056499139</v>
+        <v>-2519.127169573072</v>
       </c>
       <c r="C17" t="n">
-        <v>1.010067552602119e-05</v>
+        <v>0.001025475586794849</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-800.3851163474887</v>
+        <v>429.1570205328948</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2252143280063035</v>
+        <v>0.5245796675625634</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8090.220510428489</v>
+        <v>10420.53361448968</v>
       </c>
       <c r="C2" t="n">
-        <v>1.283106108993589e-06</v>
+        <v>1.672877376021777e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.2651457495806</v>
+        <v>119.3475152906373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8555575021678572</v>
+        <v>0.9228394194821865</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-495.7315093768901</v>
+        <v>-218.50846758253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6699247071556408</v>
+        <v>0.8447353681253956</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.35299476064483</v>
+        <v>226.2321583625442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.981906530151782</v>
+        <v>0.8392361848137098</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234.8810255189694</v>
+        <v>-68.08326427604138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2786726689451972</v>
+        <v>0.7555622959004216</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-554.573481846274</v>
+        <v>-324.6011006157589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003362871993553748</v>
+        <v>0.08617003137695241</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8753371946005</v>
+        <v>174.0726676392233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01895438047811183</v>
+        <v>0.001919454295344025</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1692.691386233143</v>
+        <v>-1789.009139927333</v>
       </c>
       <c r="C9" t="n">
-        <v>2.171725695720157e-29</v>
+        <v>2.194321376379226e-32</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.16682002137449</v>
+        <v>-26.59683918419754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001191369691709981</v>
+        <v>4.389897234840079e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.1307486999862</v>
+        <v>205.5558207191582</v>
       </c>
       <c r="C11" t="n">
-        <v>3.481532075191567e-11</v>
+        <v>6.068255598941309e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>438.2806748293133</v>
+        <v>431.9394300838399</v>
       </c>
       <c r="C12" t="n">
-        <v>8.743162407511304e-62</v>
+        <v>1.386971500937042e-56</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06816718317962839</v>
+        <v>-0.04848667664935188</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009539052242935951</v>
+        <v>0.03125242261820575</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.229215142720327e-05</v>
+        <v>4.711244093356974e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05411910499434842</v>
+        <v>0.08653534551993977</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-17.80287857476886</v>
+        <v>-28.34289774432354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005786520810227539</v>
+        <v>1.41851724505256e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.913177462219938</v>
+        <v>-17.11273197627087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6275189215441443</v>
+        <v>0.03321733044207671</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3174.293641322988</v>
+        <v>-2605.956012008335</v>
       </c>
       <c r="C17" t="n">
-        <v>2.607130222572075e-05</v>
+        <v>0.0006314947679086859</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.810169855963</v>
+        <v>158.8065299492937</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8288634063477969</v>
+        <v>0.8127037755062505</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11138.20368677466</v>
+        <v>8517.532610141106</v>
       </c>
       <c r="C2" t="n">
-        <v>8.96385095188753e-12</v>
+        <v>2.622815024590159e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.18162018501698</v>
+        <v>-311.2096362345817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9377459106334933</v>
+        <v>0.8020589253724486</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-448.380316035858</v>
+        <v>-258.2038726493461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6895556574169259</v>
+        <v>0.8192837393262625</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.6745775189459</v>
+        <v>128.2175582865316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.909401859302194</v>
+        <v>0.9096253239068234</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60.99887812276523</v>
+        <v>-21.80859350901042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7777615585271398</v>
+        <v>0.9201462940198641</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-408.9945243979224</v>
+        <v>-265.618409427151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03035827167611236</v>
+        <v>0.1597062698327565</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.3706122567207</v>
+        <v>173.4620242591538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001292041640712039</v>
+        <v>0.001802162577734531</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1733.753520993122</v>
+        <v>-1650.151047256023</v>
       </c>
       <c r="C9" t="n">
-        <v>3.970540698256945e-31</v>
+        <v>5.421550474115385e-28</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.9423498517736</v>
+        <v>-24.35872775506012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004101530383718447</v>
+        <v>0.0001788125302418404</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>209.0180698890416</v>
+        <v>242.803214292602</v>
       </c>
       <c r="C11" t="n">
-        <v>6.410573441263592e-10</v>
+        <v>9.226703724877986e-12</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>411.0776060425558</v>
+        <v>452.5460218746736</v>
       </c>
       <c r="C12" t="n">
-        <v>3.698655045089468e-55</v>
+        <v>2.380622454022733e-61</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05553863328997177</v>
+        <v>-0.06797773107162242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007098497792661959</v>
+        <v>0.002437540833592522</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.621268896878231e-05</v>
+        <v>4.076050132614989e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3396508136033261</v>
+        <v>0.1344357204640702</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.84543714031916</v>
+        <v>-15.58681007387326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001082216449486241</v>
+        <v>0.01676867002045006</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.20627146155552</v>
+        <v>-4.390640998976284</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007682421942281352</v>
+        <v>0.5858285673461665</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2653.017813234438</v>
+        <v>-3196.73879876213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004772099103022166</v>
+        <v>3.139198155271953e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-317.1416128447564</v>
+        <v>-136.9295750257106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6339608716669787</v>
+        <v>0.8387642303836325</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10401.48383883149</v>
+        <v>9299.533294036339</v>
       </c>
       <c r="C2" t="n">
-        <v>1.263231257219037e-10</v>
+        <v>7.543163043885461e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-70.77988137305849</v>
+        <v>-160.2558606757821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9541775970635757</v>
+        <v>0.8948255071321957</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-862.8351542551477</v>
+        <v>-349.7772611004548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4403832351992771</v>
+        <v>0.7496968517320444</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-286.1728888756121</v>
+        <v>3.282888996763631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7978960049667283</v>
+        <v>0.9976091156518769</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192.2513039928821</v>
+        <v>-102.5731586684946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3705207653712427</v>
+        <v>0.637511238873945</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-524.7439883029151</v>
+        <v>-430.693825214262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005035999653764941</v>
+        <v>0.02215743393974996</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.7156447362032</v>
+        <v>205.1871306330119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008479347495631635</v>
+        <v>0.0001996435789655035</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1682.043676267683</v>
+        <v>-1627.421869405207</v>
       </c>
       <c r="C9" t="n">
-        <v>1.213091036833765e-29</v>
+        <v>2.223551063204281e-27</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-27.52820040718564</v>
+        <v>-26.49233176403485</v>
       </c>
       <c r="C10" t="n">
-        <v>1.947600810903935e-05</v>
+        <v>4.604621019755769e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.0839505195039</v>
+        <v>197.9823104529381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.651297669893934e-09</v>
+        <v>2.773798691114947e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>443.1833539009017</v>
+        <v>428.0748944182329</v>
       </c>
       <c r="C12" t="n">
-        <v>7.370662081136646e-64</v>
+        <v>3.08730286076239e-56</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04356708801773591</v>
+        <v>-0.04929230520911004</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03369637909281574</v>
+        <v>0.02747002603546592</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.835726037883986e-05</v>
+        <v>4.461714405139353e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03114472693191074</v>
+        <v>0.1027995643450163</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-29.31360047029645</v>
+        <v>-22.83089373376749</v>
       </c>
       <c r="C15" t="n">
-        <v>4.506149243787329e-06</v>
+        <v>0.0004550607140067798</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.692404228610044</v>
+        <v>-6.451893185312874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2193025204304816</v>
+        <v>0.4157927289714575</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2847.922256848245</v>
+        <v>-2886.322723582873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001568081833581465</v>
+        <v>0.0001478979599782495</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-100.6454034945045</v>
+        <v>-190.3858983643043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8792498459350204</v>
+        <v>0.7743322655143634</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10748.51576607905</v>
+        <v>10020.12125293319</v>
       </c>
       <c r="C2" t="n">
-        <v>6.457455399934806e-11</v>
+        <v>1.352800594790704e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.38752103648702</v>
+        <v>362.2128055801759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9927453061758118</v>
+        <v>0.7716398501676207</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-646.9648324996593</v>
+        <v>60.87107998803839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5727922594254353</v>
+        <v>0.9571880900406795</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-126.2616567688806</v>
+        <v>634.9559983151742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9123274991623151</v>
+        <v>0.5752869523345627</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70.3800738212172</v>
+        <v>-196.5050483956645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7449107920908877</v>
+        <v>0.3681973482882027</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-402.2467847665101</v>
+        <v>-443.7489635053743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03368042549645648</v>
+        <v>0.01975210585877467</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.8212410666047</v>
+        <v>169.1696450105812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002794444561658369</v>
+        <v>0.002321754632828544</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1695.395665990426</v>
+        <v>-1799.274221525706</v>
       </c>
       <c r="C9" t="n">
-        <v>2.182699753970717e-29</v>
+        <v>9.648034662618572e-33</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.7535919438494</v>
+        <v>-22.02863350525238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002698292830072328</v>
+        <v>0.0007688154325938974</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.3686728526871</v>
+        <v>240.282852053604</v>
       </c>
       <c r="C11" t="n">
-        <v>1.274777323077051e-10</v>
+        <v>1.873734782212019e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428.5758505129794</v>
+        <v>417.1478309913846</v>
       </c>
       <c r="C12" t="n">
-        <v>4.346768316929969e-59</v>
+        <v>3.776727128108492e-53</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06061605175876034</v>
+        <v>-0.05299147335728897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003394551293489489</v>
+        <v>0.0185169746231805</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.67774745485591e-05</v>
+        <v>2.697470465455154e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01356912204416643</v>
+        <v>0.325482815796589</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.18442031648726</v>
+        <v>-25.88303826596767</v>
       </c>
       <c r="C15" t="n">
-        <v>3.124894244091999e-06</v>
+        <v>7.998791167888419e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.50776419538243</v>
+        <v>-16.12958127295919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02875653669306046</v>
+        <v>0.04552660643538557</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2588.601851440411</v>
+        <v>-2598.381697579865</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007478822492807735</v>
+        <v>0.000777057987087976</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>330.2011722136167</v>
+        <v>-67.9341304477058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6206923683143776</v>
+        <v>0.919461498517141</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16606864" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17141743" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17770354" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18196825" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ18653733" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19078687" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ19535310" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20008388" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20497447" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42433925" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42902547" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43339800" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43785870" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44215172" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44658666" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ45110798" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45553137" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46001949" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42433925" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42902547" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43339800" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43785870" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44215172" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44658666" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ45110798" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45553137" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ46001949" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ43038347" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ43470633" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43975494" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ44480088" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44995263" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ45494142" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ45995334" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46480475" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46996555" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8819.023366851212</v>
+        <v>8127.757491143376</v>
       </c>
       <c r="C2" t="n">
-        <v>1.426388625272766e-07</v>
+        <v>2.080396038589895e-08</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.2899181680117</v>
+        <v>-1119.988983319119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7612528476852356</v>
+        <v>0.3769966698201185</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.32971744279371</v>
+        <v>-1588.065904705438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9347290025391658</v>
+        <v>0.1659503473891543</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.2853823360325</v>
+        <v>-1130.627345432729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6911371761172262</v>
+        <v>0.323579014057558</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8386540382189196</v>
+        <v>-101.1223948125478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9969387898603073</v>
+        <v>0.6415174453050287</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-356.6382743818457</v>
+        <v>-277.5525383155294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06031332928390724</v>
+        <v>0.1398452140562729</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143.4004415667842</v>
+        <v>123.1252665684323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01002000649459798</v>
+        <v>0.02620074605442112</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1730.737166725597</v>
+        <v>-1768.610010639527</v>
       </c>
       <c r="C9" t="n">
-        <v>1.871400694103619e-30</v>
+        <v>6.113665732759693e-32</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.13104718893933</v>
+        <v>-26.07572341675168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004187685868027536</v>
+        <v>6.777206546274844e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.5195411455397</v>
+        <v>207.1112510967761</v>
       </c>
       <c r="C11" t="n">
-        <v>2.230495695107357e-06</v>
+        <v>8.541976080215469e-10</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>416.5447061916642</v>
+        <v>467.4418228994259</v>
       </c>
       <c r="C12" t="n">
-        <v>7.271254056977194e-53</v>
+        <v>2.708001463129504e-73</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06910617427381541</v>
+        <v>-0.07215804255194096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002045070765137749</v>
+        <v>0.0004665526463365122</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.305531846296249e-05</v>
+        <v>-3.721004232485731e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02224622830230304</v>
+        <v>0.132713451280141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.48918347915203</v>
+        <v>7.292926781434767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002120217550466115</v>
+        <v>0.2557764814008204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.452834468981805</v>
+        <v>-1937.187716110898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7657642619184561</v>
+        <v>0.01125311369841253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3665.535187252846</v>
+        <v>260.3482376367672</v>
       </c>
       <c r="C17" t="n">
-        <v>2.082082408067926e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>227.9101118351937</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7353657498648717</v>
+        <v>0.6876785961124272</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9470.681658039324</v>
+        <v>7863.321121280978</v>
       </c>
       <c r="C2" t="n">
-        <v>1.447326502810885e-08</v>
+        <v>1.940546629091042e-08</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.0009874447986</v>
+        <v>-342.4554020931296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.813729961009945</v>
+        <v>0.7748836545387414</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.75336092054931</v>
+        <v>-1122.195888551891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9388942354103869</v>
+        <v>0.3001574060718803</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>682.204398052613</v>
+        <v>-675.0937344233474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5642534060997542</v>
+        <v>0.5327374076551411</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135.3383351620539</v>
+        <v>-12.83996747424484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5344258926892567</v>
+        <v>0.9528231576745664</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-262.9937642802282</v>
+        <v>-337.2644860444159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1662191217595103</v>
+        <v>0.07371462937070555</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.8095424559932</v>
+        <v>110.5019421066897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001804694634359755</v>
+        <v>0.04793782655369998</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1622.856407937491</v>
+        <v>-1626.215482893273</v>
       </c>
       <c r="C9" t="n">
-        <v>2.705243571335648e-27</v>
+        <v>3.133494973168179e-27</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.42942049739643</v>
+        <v>-22.02060900493549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002836966271438629</v>
+        <v>0.0007333279218792077</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196.4653513671826</v>
+        <v>203.398459291051</v>
       </c>
       <c r="C11" t="n">
-        <v>2.690690845745191e-08</v>
+        <v>1.998872586378317e-09</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>404.1756454007195</v>
+        <v>454.7114987416852</v>
       </c>
       <c r="C12" t="n">
-        <v>8.504636976418325e-51</v>
+        <v>2.580125067676235e-69</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05435483333391591</v>
+        <v>-0.09384700761639403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01501368557980745</v>
+        <v>6.573778571035408e-06</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.582728172331926e-05</v>
+        <v>-7.104617480899235e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1927387335968604</v>
+        <v>0.9771560744103688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.90672065445413</v>
+        <v>5.512676656782669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001499091838460239</v>
+        <v>0.3892356394128552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.725843058733567</v>
+        <v>-2232.396051360735</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2733767516638805</v>
+        <v>0.003702263125612163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3745.17491956201</v>
+        <v>57.79193533248008</v>
       </c>
       <c r="C17" t="n">
-        <v>1.011208585602225e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-446.3114513070307</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5042667970777419</v>
+        <v>0.9291725027280167</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11385.84922477519</v>
+        <v>6929.984594793142</v>
       </c>
       <c r="C2" t="n">
-        <v>1.078813361243308e-11</v>
+        <v>1.612942479128409e-06</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-351.4854180451996</v>
+        <v>469.6746417018787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7866989886971494</v>
+        <v>0.7077501981249714</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-863.0583259691326</v>
+        <v>-17.54785106005431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4665788466019679</v>
+        <v>0.9877267635095014</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-336.7292873010398</v>
+        <v>500.1108458900495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7761503814387698</v>
+        <v>0.6609203728858377</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69.12248780746256</v>
+        <v>-72.16148422459015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7505293194884453</v>
+        <v>0.7373320563106732</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-499.1201801459167</v>
+        <v>-347.8128615030618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008477269599578513</v>
+        <v>0.06438260783171867</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.6981793312145</v>
+        <v>153.8371625108254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005277778849964921</v>
+        <v>0.005337368316828879</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1693.190576513098</v>
+        <v>-1746.260017625298</v>
       </c>
       <c r="C9" t="n">
-        <v>1.970403081403571e-29</v>
+        <v>1.958847659095149e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-28.26550415065111</v>
+        <v>-24.55630135833647</v>
       </c>
       <c r="C10" t="n">
-        <v>1.433256670526473e-05</v>
+        <v>0.0001588128057204575</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.9074883087146</v>
+        <v>189.8435185922664</v>
       </c>
       <c r="C11" t="n">
-        <v>2.370768382895565e-11</v>
+        <v>1.561705733583267e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>419.3538447788025</v>
+        <v>447.794104788564</v>
       </c>
       <c r="C12" t="n">
-        <v>2.001264069686894e-54</v>
+        <v>1.346633360702375e-68</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03945442824728332</v>
+        <v>-0.09940875882683081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07595741577119815</v>
+        <v>1.397099798307898e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.087889185358118e-05</v>
+        <v>-2.028695068383019e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4419245225541621</v>
+        <v>0.9340435159492009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.12455162236629</v>
+        <v>3.88863159635204</v>
       </c>
       <c r="C15" t="n">
-        <v>6.138363331433369e-05</v>
+        <v>0.5398524983831516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.18407818590337</v>
+        <v>-2680.583360278037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07608042784171035</v>
+        <v>0.000395758706115338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3792.246222873521</v>
+        <v>537.5011575627483</v>
       </c>
       <c r="C17" t="n">
-        <v>7.580894473344167e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-884.742275069069</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1853806646342862</v>
+        <v>0.4075433757750536</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12145.28460042453</v>
+        <v>8738.419934267826</v>
       </c>
       <c r="C2" t="n">
-        <v>3.482915954245517e-12</v>
+        <v>1.028935086274297e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1907.595419513765</v>
+        <v>-1015.763844863495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1752161699815127</v>
+        <v>0.4189639838328015</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3069.564272340848</v>
+        <v>-1852.894318174368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.018098974191681</v>
+        <v>0.1036961062663065</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2573.454772889994</v>
+        <v>-1357.271235822753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.047309249204143</v>
+        <v>0.2327482868873073</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159.8643819851644</v>
+        <v>-221.2852503874287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4609985058386238</v>
+        <v>0.3055108459865337</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-461.1425469519584</v>
+        <v>-462.333872005758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0143609970386913</v>
+        <v>0.01416332949511672</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.6733074751669</v>
+        <v>183.8756537513488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009670854602720975</v>
+        <v>0.0008349168047086819</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1854.391316557665</v>
+        <v>-1725.3582280853</v>
       </c>
       <c r="C9" t="n">
-        <v>4.480370182310057e-35</v>
+        <v>7.664562699860358e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.65360510990114</v>
+        <v>-33.1039431754678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004577722111309279</v>
+        <v>3.199491948291806e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.0277818205312</v>
+        <v>216.0143284689576</v>
       </c>
       <c r="C11" t="n">
-        <v>8.54207136019344e-15</v>
+        <v>2.177470289395414e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>443.7331639121294</v>
+        <v>461.9278184198271</v>
       </c>
       <c r="C12" t="n">
-        <v>2.612253482355517e-60</v>
+        <v>7.628700332237889e-71</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05275364422717194</v>
+        <v>-0.08701046743075663</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01789494617032093</v>
+        <v>2.520435104765657e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.458746245606288e-05</v>
+        <v>1.366586353768122e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3652117160864671</v>
+        <v>0.5774259889739624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.27120548047539</v>
+        <v>6.411809851565532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001919402893722542</v>
+        <v>0.3152504742852785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.52572578663398</v>
+        <v>-2999.600923636281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1146798413789433</v>
+        <v>7.666036182026582e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2383.785073662238</v>
+        <v>72.98391360160137</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001752739668985325</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-95.85135125979434</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8859127680718673</v>
+        <v>0.9108966423403284</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9318.083338582448</v>
+        <v>8989.061880166195</v>
       </c>
       <c r="C2" t="n">
-        <v>3.951470316913573e-08</v>
+        <v>2.835845093052668e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1371.7030656176</v>
+        <v>-2684.824014888438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2980949219983953</v>
+        <v>0.04571026378955396</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>837.6137155175505</v>
+        <v>-3064.817470989538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4910981364609054</v>
+        <v>0.01273428131605486</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.532666313478</v>
+        <v>-2574.293343287849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2945077535864532</v>
+        <v>0.03617042247477346</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25.77142188480229</v>
+        <v>-309.3513589583679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9064027203881155</v>
+        <v>0.1470903930561858</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-330.3339324345087</v>
+        <v>-451.1680520718021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08128453699457165</v>
+        <v>0.01530153829223107</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.7847854588114</v>
+        <v>129.9228801282907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001245978209740194</v>
+        <v>0.01886116921442763</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1771.665699597007</v>
+        <v>-1685.235646503669</v>
       </c>
       <c r="C9" t="n">
-        <v>1.459772452522107e-31</v>
+        <v>6.535818726360496e-30</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.55819757235268</v>
+        <v>-24.2870181090381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001786882365944817</v>
+        <v>0.000161395554880215</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.1718243634617</v>
+        <v>174.0614644779806</v>
       </c>
       <c r="C11" t="n">
-        <v>2.005397867915447e-08</v>
+        <v>2.57752618457526e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>420.0651689859986</v>
+        <v>479.4025400825018</v>
       </c>
       <c r="C12" t="n">
-        <v>1.860146905089949e-53</v>
+        <v>2.428922658672673e-78</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05880150830533976</v>
+        <v>-0.0608073282756266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009076697434403501</v>
+        <v>0.003054335034914408</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.51735278376362e-05</v>
+        <v>-2.64593799487689e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04441125216896162</v>
+        <v>0.2797758197402561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.44791234915734</v>
+        <v>15.67275924782847</v>
       </c>
       <c r="C15" t="n">
-        <v>1.606973047561589e-05</v>
+        <v>0.01371022808734387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.09343759461861</v>
+        <v>-3052.201607215624</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02384786103760105</v>
+        <v>5.663993626717817e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2519.127169573072</v>
+        <v>-425.807061461633</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001025475586794849</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>429.1570205328948</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5245796675625634</v>
+        <v>0.5076796012861543</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10420.53361448968</v>
+        <v>5940.242339617238</v>
       </c>
       <c r="C2" t="n">
-        <v>1.672877376021777e-10</v>
+        <v>5.309229961092494e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3475152906373</v>
+        <v>167.1108051574244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9228394194821865</v>
+        <v>0.8962842674300768</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-218.50846758253</v>
+        <v>-570.2199773159424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8447353681253956</v>
+        <v>0.6240252571632852</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.2321583625442</v>
+        <v>-67.67880464679251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8392361848137098</v>
+        <v>0.9535582882266221</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68.08326427604138</v>
+        <v>-231.8229538285572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7555622959004216</v>
+        <v>0.2851380075194391</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-324.6011006157589</v>
+        <v>-529.0874802264153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08617003137695241</v>
+        <v>0.005127508112350678</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0726676392233</v>
+        <v>133.1632020935925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001919454295344025</v>
+        <v>0.01616805636262489</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1789.009139927333</v>
+        <v>-1683.588159214975</v>
       </c>
       <c r="C9" t="n">
-        <v>2.194321376379226e-32</v>
+        <v>4.429123528900307e-29</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.59683918419754</v>
+        <v>-20.1928860772166</v>
       </c>
       <c r="C10" t="n">
-        <v>4.389897234840079e-05</v>
+        <v>0.001977177671429786</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5558207191582</v>
+        <v>234.0594150819743</v>
       </c>
       <c r="C11" t="n">
-        <v>6.068255598941309e-09</v>
+        <v>4.468250790817361e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>431.9394300838399</v>
+        <v>451.2400126096513</v>
       </c>
       <c r="C12" t="n">
-        <v>1.386971500937042e-56</v>
+        <v>1.177226349206293e-68</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04848667664935188</v>
+        <v>-0.08953662307628053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03125242261820575</v>
+        <v>1.696824459837806e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.711244093356974e-05</v>
+        <v>1.652332954207508e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08653534551993977</v>
+        <v>0.5074884157550927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-28.34289774432354</v>
+        <v>16.78519787902501</v>
       </c>
       <c r="C15" t="n">
-        <v>1.41851724505256e-05</v>
+        <v>0.009398936540546049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.11273197627087</v>
+        <v>-2996.955150565759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03321733044207671</v>
+        <v>7.195102766604584e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2605.956012008335</v>
+        <v>291.9725140556757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006314947679086859</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>158.8065299492937</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8127037755062505</v>
+        <v>0.6533329287564176</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8517.532610141106</v>
+        <v>8108.942437598815</v>
       </c>
       <c r="C2" t="n">
-        <v>2.622815024590159e-07</v>
+        <v>1.537398676787241e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-311.2096362345817</v>
+        <v>39.77361966452281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8020589253724486</v>
+        <v>0.9742553397260115</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-258.2038726493461</v>
+        <v>-553.6216321106017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8192837393262625</v>
+        <v>0.6220770122447619</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128.2175582865316</v>
+        <v>0.9182578331975151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9096253239068234</v>
+        <v>0.9993472647495145</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.80859350901042</v>
+        <v>-52.40566343783797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9201462940198641</v>
+        <v>0.808458598143698</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-265.618409427151</v>
+        <v>-369.197699287752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1597062698327565</v>
+        <v>0.05057606428750646</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.4620242591538</v>
+        <v>182.3430305880652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001802162577734531</v>
+        <v>0.0009446726307454707</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1650.151047256023</v>
+        <v>-1725.865703863955</v>
       </c>
       <c r="C9" t="n">
-        <v>5.421550474115385e-28</v>
+        <v>8.044236029581789e-31</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.35872775506012</v>
+        <v>-22.1313167555924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001788125302418404</v>
+        <v>0.0006572079425883395</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.803214292602</v>
+        <v>223.118721753015</v>
       </c>
       <c r="C11" t="n">
-        <v>9.226703724877986e-12</v>
+        <v>4.223469439532053e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452.5460218746736</v>
+        <v>430.8471827547496</v>
       </c>
       <c r="C12" t="n">
-        <v>2.380622454022733e-61</v>
+        <v>4.617360588945258e-63</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06797773107162242</v>
+        <v>-0.08931554961651179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002437540833592522</v>
+        <v>1.772024314750809e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.076050132614989e-05</v>
+        <v>-1.844862008124922e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1344357204640702</v>
+        <v>0.4632144333019012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-15.58681007387326</v>
+        <v>-3.463903610858568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01676867002045006</v>
+        <v>0.5879032357956651</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.390640998976284</v>
+        <v>-2416.511417988942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5858285673461665</v>
+        <v>0.001467439469170424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3196.73879876213</v>
+        <v>45.76577965403732</v>
       </c>
       <c r="C17" t="n">
-        <v>3.139198155271953e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-136.9295750257106</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8387642303836325</v>
+        <v>0.9439380365206095</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9299.533294036339</v>
+        <v>6846.643670145569</v>
       </c>
       <c r="C2" t="n">
-        <v>7.543163043885461e-09</v>
+        <v>1.465614697224705e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-160.2558606757821</v>
+        <v>-173.9744861409404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8948255071321957</v>
+        <v>0.887812531883735</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-349.7772611004548</v>
+        <v>-1005.210396961753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7496968517320444</v>
+        <v>0.3691716139677201</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.282888996763631</v>
+        <v>-457.1388752859684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9976091156518769</v>
+        <v>0.6827120089301668</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102.5731586684946</v>
+        <v>-193.0116267787863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.637511238873945</v>
+        <v>0.3690866227676567</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-430.693825214262</v>
+        <v>-489.7088526280401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02215743393974996</v>
+        <v>0.008916985536366511</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.1871306330119</v>
+        <v>189.0357834403868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001996435789655035</v>
+        <v>0.0006037886281691206</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1627.421869405207</v>
+        <v>-1674.31712300759</v>
       </c>
       <c r="C9" t="n">
-        <v>2.223551063204281e-27</v>
+        <v>2.550772416957307e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.49233176403485</v>
+        <v>-26.25232931087508</v>
       </c>
       <c r="C10" t="n">
-        <v>4.604621019755769e-05</v>
+        <v>4.671047134827325e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197.9823104529381</v>
+        <v>218.0964787841531</v>
       </c>
       <c r="C11" t="n">
-        <v>2.773798691114947e-08</v>
+        <v>9.870175947960376e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428.0748944182329</v>
+        <v>467.6021814497397</v>
       </c>
       <c r="C12" t="n">
-        <v>3.08730286076239e-56</v>
+        <v>6.591415409852319e-74</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04929230520911004</v>
+        <v>-0.08105601908449828</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02747002603546592</v>
+        <v>8.423024940442551e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.461714405139353e-05</v>
+        <v>3.769329653833371e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1027995643450163</v>
+        <v>0.8790145682712924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.83089373376749</v>
+        <v>11.22638896363899</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004550607140067798</v>
+        <v>0.07719115147635805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.451893185312874</v>
+        <v>-2534.944335243271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4157927289714575</v>
+        <v>0.0007702508443973707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2886.322723582873</v>
+        <v>308.658428513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001478979599782495</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-190.3858983643043</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7743322655143634</v>
+        <v>0.6341227294730141</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10020.12125293319</v>
+        <v>7088.403894014427</v>
       </c>
       <c r="C2" t="n">
-        <v>1.352800594790704e-09</v>
+        <v>1.005254860004682e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.2128055801759</v>
+        <v>-140.9797255635194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7716398501676207</v>
+        <v>0.9104714248900625</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.87107998803839</v>
+        <v>-820.2574493789814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9571880900406795</v>
+        <v>0.4749569082773228</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.9559983151742</v>
+        <v>-330.2843338829957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5752869523345627</v>
+        <v>0.7734520595277468</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196.5050483956645</v>
+        <v>-68.10641772631709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3681973482882027</v>
+        <v>0.7532057782574447</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-443.7489635053743</v>
+        <v>-359.7880819694068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01975210585877467</v>
+        <v>0.05752500873719826</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.1696450105812</v>
+        <v>172.4910555300937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002321754632828544</v>
+        <v>0.001771512730527254</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1799.274221525706</v>
+        <v>-1689.27715948585</v>
       </c>
       <c r="C9" t="n">
-        <v>9.648034662618572e-33</v>
+        <v>4.070527773633956e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.02863350525238</v>
+        <v>-22.95979505503767</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007688154325938974</v>
+        <v>0.0004356440672635879</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.282852053604</v>
+        <v>238.1995879616011</v>
       </c>
       <c r="C11" t="n">
-        <v>1.873734782212019e-11</v>
+        <v>3.821343935882991e-12</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>417.1478309913846</v>
+        <v>453.3340325609258</v>
       </c>
       <c r="C12" t="n">
-        <v>3.776727128108492e-53</v>
+        <v>6.714738047137616e-69</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05299147335728897</v>
+        <v>-0.1012295672329665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0185169746231805</v>
+        <v>1.043470239332473e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.697470465455154e-05</v>
+        <v>1.247061924027967e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.325482815796589</v>
+        <v>0.6149967712759705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.88303826596767</v>
+        <v>4.098134632777456</v>
       </c>
       <c r="C15" t="n">
-        <v>7.998791167888419e-05</v>
+        <v>0.5234582558354388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.12958127295919</v>
+        <v>-2249.305010158236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04552660643538557</v>
+        <v>0.003423586769897617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2598.381697579865</v>
+        <v>802.376885353661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000777057987087976</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-67.9341304477058</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.919461498517141</v>
+        <v>0.2179042135553166</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Lyon.xlsx
+++ b/outputs/ML_Results/dist_commute/Lyon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ43038347" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ43470633" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43975494" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ44480088" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44995263" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ45494142" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ45995334" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ46480475" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ46996555" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ10298609" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10673427" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ11083423" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ11457383" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ11820391" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ12200495" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ12553983" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ12889024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ13233456" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8127.757491143376</v>
+        <v>8127.757491558412</v>
       </c>
       <c r="C2" t="n">
-        <v>2.080396038589895e-08</v>
+        <v>2.080396050451402e-08</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1119.988983319119</v>
+        <v>-1119.988983436764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3769966698201185</v>
+        <v>0.3769966698199467</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1588.065904705438</v>
+        <v>-1588.065904714763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1659503473891543</v>
+        <v>0.1659503473901589</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1130.627345432729</v>
+        <v>-1130.627345129351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323579014057558</v>
+        <v>0.3235790140575614</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101.1223948125478</v>
+        <v>-101.122395121219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6415174453050287</v>
+        <v>0.6415174442630551</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-277.5525383155294</v>
+        <v>-277.5525383278376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1398452140562729</v>
+        <v>0.1398452140378571</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.1252665684323</v>
+        <v>123.1252667207368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02620074605442112</v>
+        <v>0.02620074587275354</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1768.610010639527</v>
+        <v>-1768.610010759415</v>
       </c>
       <c r="C9" t="n">
-        <v>6.113665732759693e-32</v>
+        <v>6.113665652154144e-32</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.07572341675168</v>
+        <v>-26.07572340276838</v>
       </c>
       <c r="C10" t="n">
-        <v>6.777206546274844e-05</v>
+        <v>6.777206616675845e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.1112510967761</v>
+        <v>207.1112509542811</v>
       </c>
       <c r="C11" t="n">
-        <v>8.541976080215469e-10</v>
+        <v>8.541976304282479e-10</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>467.4418228994259</v>
+        <v>467.4418229204941</v>
       </c>
       <c r="C12" t="n">
-        <v>2.708001463129504e-73</v>
+        <v>2.708001413154732e-73</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.07215804255194096</v>
+        <v>-7.215804253723288</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004665526463365122</v>
+        <v>0.0004665526476556474</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.721004232485731e-05</v>
+        <v>-37.21004230371103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.132713451280141</v>
+        <v>0.1327134516071997</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.292926781434767</v>
+        <v>7.2929267814355</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2557764814008204</v>
+        <v>0.2557764814007703</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1937.187716110898</v>
+        <v>-19.37187716111242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01125311369841253</v>
+        <v>0.01125311369839735</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>260.3482376367672</v>
+        <v>2.603482376365006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6876785961124272</v>
+        <v>0.6876785961127305</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7863.321121280978</v>
+        <v>7863.321121618485</v>
       </c>
       <c r="C2" t="n">
-        <v>1.940546629091042e-08</v>
+        <v>1.940546662727664e-08</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-342.4554020931296</v>
+        <v>-342.45540201325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7748836545387414</v>
+        <v>0.7748836545392421</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1122.195888551891</v>
+        <v>-1122.195888439368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3001574060718803</v>
+        <v>0.3001574059637378</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-675.0937344233474</v>
+        <v>-675.0937343540736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5327374076551411</v>
+        <v>0.5327374076155569</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.83996747424484</v>
+        <v>-12.83996744572759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9528231576745664</v>
+        <v>0.9528231577801517</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-337.2644860444159</v>
+        <v>-337.2644860362083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07371462937070555</v>
+        <v>0.07371462937887831</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.5019421066897</v>
+        <v>110.5019420707237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04793782655369998</v>
+        <v>0.04793782662623103</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1626.215482893273</v>
+        <v>-1626.215482880979</v>
       </c>
       <c r="C9" t="n">
-        <v>3.133494973168179e-27</v>
+        <v>3.133494979688005e-27</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.02060900493549</v>
+        <v>-22.02060900568188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007333279218792077</v>
+        <v>0.0007333279214214057</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.398459291051</v>
+        <v>203.3984592632444</v>
       </c>
       <c r="C11" t="n">
-        <v>1.998872586378317e-09</v>
+        <v>1.99887259606304e-09</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.7114987416852</v>
+        <v>454.7114987592486</v>
       </c>
       <c r="C12" t="n">
-        <v>2.580125067676235e-69</v>
+        <v>2.580125022910187e-69</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09384700761639403</v>
+        <v>-9.384700761779623</v>
       </c>
       <c r="C13" t="n">
-        <v>6.573778571035408e-06</v>
+        <v>6.573778568608989e-06</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.104617480899235e-07</v>
+        <v>-0.7104616120663305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9771560744103688</v>
+        <v>0.9771560787866316</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.512676656782669</v>
+        <v>5.512676656783765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3892356394128552</v>
+        <v>0.3892356394127597</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2232.396051360735</v>
+        <v>-22.32396051360981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003702263125612163</v>
+        <v>0.003702263125608259</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.79193533248008</v>
+        <v>0.577919353323515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9291725027280167</v>
+        <v>0.9291725027281736</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6929.984594793142</v>
+        <v>6929.984593700228</v>
       </c>
       <c r="C2" t="n">
-        <v>1.612942479128409e-06</v>
+        <v>1.612942540165889e-06</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.6746417018787</v>
+        <v>469.6746416905708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7077501981249714</v>
+        <v>0.7077501981248617</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.54785106005431</v>
+        <v>-17.54785101953587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9877267635095014</v>
+        <v>0.9877267635388862</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>500.1108458900495</v>
+        <v>500.1108459202785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6609203728858377</v>
+        <v>0.6609203728868813</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72.16148422459015</v>
+        <v>-72.16148421202354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7373320563106732</v>
+        <v>0.737332056352938</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-347.8128615030618</v>
+        <v>-347.8128615306908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06438260783171867</v>
+        <v>0.0643826078140641</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8371625108254</v>
+        <v>153.8371625648054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005337368316828879</v>
+        <v>0.005337368300090973</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1746.260017625298</v>
+        <v>-1746.260017609518</v>
       </c>
       <c r="C9" t="n">
-        <v>1.958847659095149e-31</v>
+        <v>1.958847658204811e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.55630135833647</v>
+        <v>-24.55630135167432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001588128057204575</v>
+        <v>0.0001588128061566803</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.8435185922664</v>
+        <v>189.843518626348</v>
       </c>
       <c r="C11" t="n">
-        <v>1.561705733583267e-08</v>
+        <v>1.561705723264353e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>447.794104788564</v>
+        <v>447.7941048125266</v>
       </c>
       <c r="C12" t="n">
-        <v>1.346633360702375e-68</v>
+        <v>1.346633355544903e-68</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09940875882683081</v>
+        <v>-9.940875881265955</v>
       </c>
       <c r="C13" t="n">
-        <v>1.397099798307898e-06</v>
+        <v>1.397099802348085e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.028695068383019e-06</v>
+        <v>-2.028695184365324</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9340435159492009</v>
+        <v>0.9340435121816226</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.88863159635204</v>
+        <v>3.888631596352053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5398524983831516</v>
+        <v>0.5398524983831501</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2680.583360278037</v>
+        <v>-26.8058336027806</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000395758706115338</v>
+        <v>0.0003957587061152936</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>537.5011575627483</v>
+        <v>5.375011575626725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4075433757750536</v>
+        <v>0.4075433757751215</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8738.419934267826</v>
+        <v>8738.419934367148</v>
       </c>
       <c r="C2" t="n">
-        <v>1.028935086274297e-09</v>
+        <v>1.028935088171546e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1015.763844863495</v>
+        <v>-1015.76384480016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4189639838328015</v>
+        <v>0.4189639838338106</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1852.894318174368</v>
+        <v>-1852.8943181109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1036961062663065</v>
+        <v>0.1036961062568636</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1357.271235822753</v>
+        <v>-1357.271235630987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2327482868873073</v>
+        <v>0.2327482868660309</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221.2852503874287</v>
+        <v>-221.2852502348333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3055108459865337</v>
+        <v>0.3055108463413929</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-462.333872005758</v>
+        <v>-462.3338719086233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01416332949511672</v>
+        <v>0.01416332951780564</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.8756537513488</v>
+        <v>183.8756537372028</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008349168047086819</v>
+        <v>0.0008349168054652246</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1725.3582280853</v>
+        <v>-1725.358228081851</v>
       </c>
       <c r="C9" t="n">
-        <v>7.664562699860358e-31</v>
+        <v>7.664562702854646e-31</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-33.1039431754678</v>
+        <v>-33.10394317364744</v>
       </c>
       <c r="C10" t="n">
-        <v>3.199491948291806e-07</v>
+        <v>3.199491954378518e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.0143284689576</v>
+        <v>216.0143283979412</v>
       </c>
       <c r="C11" t="n">
-        <v>2.177470289395414e-10</v>
+        <v>2.177470318880932e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.9278184198271</v>
+        <v>461.9278184806549</v>
       </c>
       <c r="C12" t="n">
-        <v>7.628700332237889e-71</v>
+        <v>7.628700027674223e-71</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08701046743075663</v>
+        <v>-8.701046747928192</v>
       </c>
       <c r="C13" t="n">
-        <v>2.520435104765657e-05</v>
+        <v>2.520435076911996e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.366586353768122e-05</v>
+        <v>13.66586371020023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5774259889739624</v>
+        <v>0.5774259840726141</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.411809851565532</v>
+        <v>6.411809851563556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3152504742852785</v>
+        <v>0.3152504742854293</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2999.600923636281</v>
+        <v>-29.99600923636432</v>
       </c>
       <c r="C16" t="n">
-        <v>7.666036182026582e-05</v>
+        <v>7.666036182019944e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.98391360160137</v>
+        <v>0.7298391360146805</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9108966423403284</v>
+        <v>0.9108966423404905</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8989.061880166195</v>
+        <v>8989.061886379523</v>
       </c>
       <c r="C2" t="n">
-        <v>2.835845093052668e-09</v>
+        <v>2.835845176673934e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2684.824014888438</v>
+        <v>-2684.824014373823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04571026378955396</v>
+        <v>0.04571026378983449</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3064.817470989538</v>
+        <v>-3064.81747059257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01273428131605486</v>
+        <v>0.01273428131453535</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2574.293343287849</v>
+        <v>-2574.293343051544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03617042247477346</v>
+        <v>0.03617042247559768</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309.3513589583679</v>
+        <v>-309.3513592622465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1470903930561858</v>
+        <v>0.1470903926541176</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-451.1680520718021</v>
+        <v>-451.1680519419472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01530153829223107</v>
+        <v>0.01530153832171558</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9228801282907</v>
+        <v>129.9228801694661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01886116921442763</v>
+        <v>0.01886116917737435</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1685.235646503669</v>
+        <v>-1685.235646671019</v>
       </c>
       <c r="C9" t="n">
-        <v>6.535818726360496e-30</v>
+        <v>6.535818629105459e-30</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.2870181090381</v>
+        <v>-24.28701816666413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000161395554880215</v>
+        <v>0.0001613955486720849</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.0614644779806</v>
+        <v>174.0614640362731</v>
       </c>
       <c r="C11" t="n">
-        <v>2.57752618457526e-07</v>
+        <v>2.577526364895171e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>479.4025400825018</v>
+        <v>479.4025399421909</v>
       </c>
       <c r="C12" t="n">
-        <v>2.428922658672673e-78</v>
+        <v>2.428922910889019e-78</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0608073282756266</v>
+        <v>-6.080732810471624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003054335034914408</v>
+        <v>0.003054335120027032</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.64593799487689e-05</v>
+        <v>-26.45937998245397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2797758197402561</v>
+        <v>0.2797758189684637</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.67275924782847</v>
+        <v>15.67275924782819</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01371022808734387</v>
+        <v>0.01371022808734499</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3052.201607215624</v>
+        <v>-30.52201607215651</v>
       </c>
       <c r="C16" t="n">
-        <v>5.663993626717817e-05</v>
+        <v>5.663993626716807e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-425.807061461633</v>
+        <v>-4.258070614616443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5076796012861543</v>
+        <v>0.5076796012861438</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5940.242339617238</v>
+        <v>5940.242339120447</v>
       </c>
       <c r="C2" t="n">
-        <v>5.309229961092494e-05</v>
+        <v>5.309230136778905e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.1108051574244</v>
+        <v>167.1108051230843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8962842674300768</v>
+        <v>0.8962842674303616</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-570.2199773159424</v>
+        <v>-570.2199773650686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6240252571632852</v>
+        <v>0.6240252570326433</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-67.67880464679251</v>
+        <v>-67.67880468057615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9535582882266221</v>
+        <v>0.9535582881941562</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231.8229538285572</v>
+        <v>-231.8229537789471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2851380075194391</v>
+        <v>0.2851380075816973</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-529.0874802264153</v>
+        <v>-529.0874802345731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005127508112350678</v>
+        <v>0.005127508112014407</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>133.1632020935925</v>
+        <v>133.1632021139941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01616805636262489</v>
+        <v>0.01616805634734877</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1683.588159214975</v>
+        <v>-1683.588159219893</v>
       </c>
       <c r="C9" t="n">
-        <v>4.429123528900307e-29</v>
+        <v>4.429123531956288e-29</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.1928860772166</v>
+        <v>-20.19288607556713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001977177671429786</v>
+        <v>0.001977177671160114</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.0594150819743</v>
+        <v>234.0594150972823</v>
       </c>
       <c r="C11" t="n">
-        <v>4.468250790817361e-12</v>
+        <v>4.468250758004505e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451.2400126096513</v>
+        <v>451.2400126153109</v>
       </c>
       <c r="C12" t="n">
-        <v>1.177226349206293e-68</v>
+        <v>1.177226353802988e-68</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08953662307628053</v>
+        <v>-8.953662307158606</v>
       </c>
       <c r="C13" t="n">
-        <v>1.696824459837806e-05</v>
+        <v>1.696824461107598e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.652332954207508e-05</v>
+        <v>16.52333000659992</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5074884157550927</v>
+        <v>0.5074884035633489</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.78519787902501</v>
+        <v>16.78519787902447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009398936540546049</v>
+        <v>0.009398936540548108</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2996.955150565759</v>
+        <v>-29.96955150565687</v>
       </c>
       <c r="C16" t="n">
-        <v>7.195102766604584e-05</v>
+        <v>7.195102766607751e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.9725140556757</v>
+        <v>2.919725140556486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6533329287564176</v>
+        <v>0.6533329287564481</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8108.942437598815</v>
+        <v>8108.942437584594</v>
       </c>
       <c r="C2" t="n">
-        <v>1.537398676787241e-08</v>
+        <v>1.537398687551359e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.77361966452281</v>
+        <v>39.77361966822508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9742553397260115</v>
+        <v>0.9742553397261066</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-553.6216321106017</v>
+        <v>-553.6216321115102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6220770122447619</v>
+        <v>0.622077012235144</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9182578331975151</v>
+        <v>0.9182578372985404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993472647495145</v>
+        <v>0.9993472647466619</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52.40566343783797</v>
+        <v>-52.40566344104144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.808458598143698</v>
+        <v>0.8084585981361599</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-369.197699287752</v>
+        <v>-369.1976992910982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05057606428750646</v>
+        <v>0.05057606428936411</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.3430305880652</v>
+        <v>182.3430305922702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009446726307454707</v>
+        <v>0.0009446726305866469</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1725.865703863955</v>
+        <v>-1725.86570386168</v>
       </c>
       <c r="C9" t="n">
-        <v>8.044236029581789e-31</v>
+        <v>8.044236011047073e-31</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.1313167555924</v>
+        <v>-22.131316755166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006572079425883395</v>
+        <v>0.0006572079420118465</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>223.118721753015</v>
+        <v>223.118721753532</v>
       </c>
       <c r="C11" t="n">
-        <v>4.223469439532053e-11</v>
+        <v>4.223469438681585e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.8471827547496</v>
+        <v>430.8471827538797</v>
       </c>
       <c r="C12" t="n">
-        <v>4.617360588945258e-63</v>
+        <v>4.617360577542788e-63</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08931554961651179</v>
+        <v>-8.931554961736477</v>
       </c>
       <c r="C13" t="n">
-        <v>1.772024314750809e-05</v>
+        <v>1.772024314941135e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.844862008124922e-05</v>
+        <v>-18.44862035436225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4632144333019012</v>
+        <v>0.4632144268376818</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.463903610858568</v>
+        <v>-3.463903610858079</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5879032357956651</v>
+        <v>0.5879032357957185</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2416.511417988942</v>
+        <v>-24.16511417989178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001467439469170424</v>
+        <v>0.001467439469168804</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.76577965403732</v>
+        <v>0.4576577965388959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9439380365206095</v>
+        <v>0.9439380365207901</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6846.643670145569</v>
+        <v>6846.643670673273</v>
       </c>
       <c r="C2" t="n">
-        <v>1.465614697224705e-06</v>
+        <v>1.465614759586439e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-173.9744861409404</v>
+        <v>-173.9744860792421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.887812531883735</v>
+        <v>0.8878125318847618</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1005.210396961753</v>
+        <v>-1005.210396895544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3691716139677201</v>
+        <v>0.3691716138193339</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-457.1388752859684</v>
+        <v>-457.1388752442747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6827120089301668</v>
+        <v>0.6827120088862929</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193.0116267787863</v>
+        <v>-193.0116267941645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3690866227676567</v>
+        <v>0.3690866227178197</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-489.7088526280401</v>
+        <v>-489.7088526209417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008916985536366511</v>
+        <v>0.008916985538026301</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.0357834403868</v>
+        <v>189.0357834325543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006037886281691206</v>
+        <v>0.0006037886284894477</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1674.31712300759</v>
+        <v>-1674.31712299912</v>
       </c>
       <c r="C9" t="n">
-        <v>2.550772416957307e-29</v>
+        <v>2.55077242305008e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.25232931087508</v>
+        <v>-26.25232931408662</v>
       </c>
       <c r="C10" t="n">
-        <v>4.671047134827325e-05</v>
+        <v>4.671047114559725e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.0964787841531</v>
+        <v>218.0964787887757</v>
       </c>
       <c r="C11" t="n">
-        <v>9.870175947960376e-11</v>
+        <v>9.870175940448957e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>467.6021814497397</v>
+        <v>467.6021814377995</v>
       </c>
       <c r="C12" t="n">
-        <v>6.591415409852319e-74</v>
+        <v>6.591415535273988e-74</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08105601908449828</v>
+        <v>-8.105601907898656</v>
       </c>
       <c r="C13" t="n">
-        <v>8.423024940442551e-05</v>
+        <v>8.423024951304664e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.769329653833371e-06</v>
+        <v>3.769329922710176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8790145682712924</v>
+        <v>0.8790145596770156</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.22638896363899</v>
+        <v>11.22638896363998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07719115147635805</v>
+        <v>0.07719115147633064</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2534.944335243271</v>
+        <v>-25.34944335243508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007702508443973707</v>
+        <v>0.0007702508443964844</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.658428513</v>
+        <v>3.086584285127881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6341227294730141</v>
+        <v>0.6341227294732478</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7088.403894014427</v>
+        <v>7088.403894070514</v>
       </c>
       <c r="C2" t="n">
-        <v>1.005254860004682e-06</v>
+        <v>1.005254865878325e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-140.9797255635194</v>
+        <v>-140.97972555026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9104714248900625</v>
+        <v>0.9104714248901264</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-820.2574493789814</v>
+        <v>-820.2574493522667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4749569082773228</v>
+        <v>0.4749569082088313</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-330.2843338829957</v>
+        <v>-330.2843338699524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7734520595277468</v>
+        <v>0.773452059516058</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68.10641772631709</v>
+        <v>-68.10641773184527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7532057782574447</v>
+        <v>0.7532057782360233</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-359.7880819694068</v>
+        <v>-359.7880819565545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05752500873719826</v>
+        <v>0.05752500874884753</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.4910555300937</v>
+        <v>172.4910555182549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001771512730527254</v>
+        <v>0.001771512731979196</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1689.27715948585</v>
+        <v>-1689.277159490884</v>
       </c>
       <c r="C9" t="n">
-        <v>4.070527773633956e-29</v>
+        <v>4.070527767320006e-29</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.95979505503767</v>
+        <v>-22.9597950569028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004356440672635879</v>
+        <v>0.0004356440660471427</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.1995879616011</v>
+        <v>238.1995879485768</v>
       </c>
       <c r="C11" t="n">
-        <v>3.821343935882991e-12</v>
+        <v>3.82134394444353e-12</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453.3340325609258</v>
+        <v>453.3340325687831</v>
       </c>
       <c r="C12" t="n">
-        <v>6.714738047137616e-69</v>
+        <v>6.714737930621995e-69</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1012295672329665</v>
+        <v>-10.12295672387027</v>
       </c>
       <c r="C13" t="n">
-        <v>1.043470239332473e-06</v>
+        <v>1.043470237887114e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.247061924027967e-05</v>
+        <v>12.47061947172359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6149967712759705</v>
+        <v>0.6149967646522887</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.098134632777456</v>
+        <v>4.098134632778275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5234582558354388</v>
+        <v>0.5234582558353554</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2249.305010158236</v>
+        <v>-22.49305010158508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003423586769897617</v>
+        <v>0.003423586769893545</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.376885353661</v>
+        <v>8.023768853535126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2179042135553166</v>
+        <v>0.2179042135554017</v>
       </c>
     </row>
   </sheetData>
